--- a/document/DB/データベース設計書.xlsx
+++ b/document/DB/データベース設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,8 +17,9 @@
     <sheet name="buy_history_detail" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="goods_categorys" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="brands" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="CRUD図 " sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="テーブル名" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="cards" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="CRUD図 " sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="テーブル名" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,36 @@
 </workbook>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAAAGiteApQ
+西野　直幸    (2020-05-24 12:11:55)
+PK＝主キー
+FK＝外部キー
+を記入する</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author> </author>
@@ -262,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="200">
   <si>
     <t xml:space="preserve">作成日</t>
   </si>
@@ -435,6 +465,15 @@
     <t xml:space="preserve">ブランド情報を保持するテーブル</t>
   </si>
   <si>
+    <t xml:space="preserve">カード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顧客のカード情報を保持するテーブル</t>
+  </si>
+  <si>
     <t xml:space="preserve">E-Rモデル図</t>
   </si>
   <si>
@@ -486,10 +525,10 @@
     <t xml:space="preserve">Yes (PK)</t>
   </si>
   <si>
-    <t xml:space="preserve">ユーザーID</t>
+    <t xml:space="preserve">ログインID</t>
   </si>
   <si>
-    <t xml:space="preserve">user_id</t>
+    <t xml:space="preserve">login_id</t>
   </si>
   <si>
     <t xml:space="preserve">varchar(50)</t>
@@ -600,10 +639,19 @@
     <t xml:space="preserve">sample_db.buy_historys</t>
   </si>
   <si>
+    <t xml:space="preserve">user_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample_db.`carts_FK`</t>
   </si>
   <si>
     <t xml:space="preserve">sample_db.carts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample_db.`cards_FK`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample_db.cards</t>
   </si>
   <si>
     <t xml:space="preserve">商品名</t>
@@ -772,6 +820,51 @@
   </si>
   <si>
     <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カード番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int(16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有効月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period_month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有効年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">別名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varchar(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名義</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int(11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample_db.`users_FK_1`</t>
   </si>
   <si>
     <t xml:space="preserve">CRUD図</t>
@@ -1428,7 +1521,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2041,6 +2134,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2218,15 +2319,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1005120</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>352440</xdr:colOff>
+      <xdr:colOff>1270800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2239,8 +2340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1391760" y="6401160"/>
-          <a:ext cx="6362640" cy="5671800"/>
+          <a:off x="386640" y="6229080"/>
+          <a:ext cx="8286120" cy="5952960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2262,7 +2363,7 @@
   </sheetPr>
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4482,9 +4583,1783 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
+  <dimension ref="A1:Z55"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="55" t="n">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+    </row>
+    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+    </row>
+    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+    </row>
+    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="96" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="96" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="153" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="153"/>
+      <c r="E13" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="96" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="153"/>
+      <c r="E14" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="153"/>
+      <c r="E15" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="153" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="153"/>
+      <c r="E16" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+    </row>
+    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="153"/>
+      <c r="E17" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="68" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="79"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="79"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+    </row>
+    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="79"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
+    </row>
+    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="79"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+    </row>
+    <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="79"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="79"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
+    </row>
+    <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="79"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="79"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
+    </row>
+    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="79"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
+    </row>
+    <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="79"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="79"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+    </row>
+    <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+    </row>
+    <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="64"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+    </row>
+    <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="91"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="73"/>
+    </row>
+    <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="96"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="99"/>
+    </row>
+    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="96"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="99"/>
+    </row>
+    <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="96"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="99"/>
+    </row>
+    <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="81"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="84"/>
+    </row>
+    <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+    </row>
+    <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+    </row>
+    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="89"/>
+      <c r="H41" s="93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="102" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="103"/>
+      <c r="H42" s="104" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="96"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="99"/>
+    </row>
+    <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="106"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="108"/>
+    </row>
+    <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="106"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="108"/>
+    </row>
+    <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="109"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="112"/>
+    </row>
+    <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+    </row>
+    <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+    </row>
+    <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" s="121"/>
+      <c r="H49" s="67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" s="71"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="119"/>
+    </row>
+    <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="106"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="108"/>
+    </row>
+    <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="106"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="108"/>
+    </row>
+    <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="106"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="108"/>
+    </row>
+    <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="109"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="112"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="1.02361111111111" right="0.236111111111111" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4499,24 +6374,24 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="155"/>
+      <c r="A1" s="155" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="157"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="158" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -4527,43 +6402,43 @@
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="159" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
-      <c r="K2" s="157" t="s">
+      <c r="K2" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="160"/>
+      <c r="B3" s="162"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="159" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="157" t="s">
+      <c r="K3" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="160"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -4572,11 +6447,11 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
-      <c r="K4" s="157" t="s">
+      <c r="K4" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="31"/>
@@ -4607,10 +6482,10 @@
       <c r="Z5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="162" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="160"/>
+      <c r="A6" s="164" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="162"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
@@ -4621,13 +6496,13 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="163"/>
+      <c r="M6" s="165"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="160"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
@@ -4638,10 +6513,10 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="163"/>
+      <c r="M7" s="165"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="165"/>
+      <c r="A8" s="167"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -4653,444 +6528,444 @@
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
-      <c r="M8" s="166"/>
+      <c r="M8" s="168"/>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="165"/>
+      <c r="A9" s="167"/>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="167" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="166"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="169" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="168"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="165"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="167" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="167" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" s="167" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" s="167" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" s="167"/>
-      <c r="M10" s="166"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="172" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="169" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="169" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="169" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="169"/>
+      <c r="M10" s="168"/>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="165"/>
-      <c r="B11" s="171" t="s">
-        <v>178</v>
+      <c r="A11" s="167"/>
+      <c r="B11" s="173" t="s">
+        <v>199</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="166"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="168"/>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="165"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="167"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="166"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="168"/>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="165"/>
-      <c r="B13" s="171"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="166"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="168"/>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="165"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="173"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="166"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="168"/>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="165"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
-      <c r="M15" s="166"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="168"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="165"/>
-      <c r="B16" s="171"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="166"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="168"/>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="165"/>
-      <c r="B17" s="171"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="166"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="168"/>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="165"/>
-      <c r="B18" s="171"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="173"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="166"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="168"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="165"/>
-      <c r="B19" s="171"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="173"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="166"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="168"/>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="165"/>
-      <c r="B20" s="171"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="173"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="166"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="168"/>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="165"/>
-      <c r="B21" s="171"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="173"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167"/>
-      <c r="L21" s="167"/>
-      <c r="M21" s="166"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="168"/>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="165"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="172"/>
+      <c r="A22" s="167"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="166"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="168"/>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="165"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="172"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="174"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
-      <c r="M23" s="166"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="168"/>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="165"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="172"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="174"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="167"/>
-      <c r="M24" s="166"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="168"/>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="165"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="172"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="174"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
-      <c r="M25" s="166"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="168"/>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="165"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="172"/>
+      <c r="A26" s="167"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="174"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="166"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="168"/>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="165"/>
-      <c r="B27" s="171"/>
-      <c r="C27" s="172"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="174"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="166"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="168"/>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="165"/>
-      <c r="B28" s="171"/>
-      <c r="C28" s="172"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="174"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="166"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="168"/>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="165"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="172"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="174"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="166"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="168"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="165"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="172"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="174"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
-      <c r="M30" s="166"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="168"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="165"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="172"/>
+      <c r="A31" s="167"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="174"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="167"/>
-      <c r="L31" s="167"/>
-      <c r="M31" s="166"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="168"/>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="165"/>
-      <c r="B32" s="171"/>
+      <c r="A32" s="167"/>
+      <c r="B32" s="173"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
-      <c r="M32" s="166"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="168"/>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="165"/>
-      <c r="B33" s="171"/>
+      <c r="A33" s="167"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="166"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="168"/>
     </row>
     <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="165"/>
-      <c r="B34" s="171"/>
+      <c r="A34" s="167"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="166"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="169"/>
+      <c r="K34" s="169"/>
+      <c r="L34" s="169"/>
+      <c r="M34" s="168"/>
     </row>
     <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="165"/>
-      <c r="B35" s="171"/>
+      <c r="A35" s="167"/>
+      <c r="B35" s="173"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
-      <c r="M35" s="166"/>
+      <c r="G35" s="169"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="169"/>
+      <c r="K35" s="169"/>
+      <c r="L35" s="169"/>
+      <c r="M35" s="168"/>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="165"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="167"/>
+      <c r="B36" s="173"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="166"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="169"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="169"/>
+      <c r="M36" s="168"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="165"/>
+      <c r="A37" s="167"/>
       <c r="B37" s="61"/>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
@@ -5102,22 +6977,22 @@
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="166"/>
+      <c r="M37" s="168"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="174"/>
-      <c r="B38" s="175"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="175"/>
-      <c r="L38" s="175"/>
-      <c r="M38" s="176"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="178"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6115,14 +7990,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6140,7 +8015,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -6178,7 +8053,7 @@
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="37" t="s">
@@ -6205,7 +8080,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6278,7 +8153,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -6290,33 +8165,33 @@
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="68"/>
       <c r="B11" s="69"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
@@ -6524,7 +8399,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -6536,22 +8411,22 @@
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6616,7 +8491,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -6628,22 +8503,22 @@
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6708,7 +8583,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -6720,22 +8595,22 @@
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="66" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7807,8 +9682,8 @@
   </sheetPr>
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8387,11 +10262,21 @@
       <c r="Z16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="F17" s="39"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -8416,7 +10301,7 @@
     </row>
     <row r="18" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -10973,8 +12858,8 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10991,7 +12876,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -11029,7 +12914,7 @@
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="37" t="s">
@@ -11056,7 +12941,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11121,7 +13006,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -11131,7 +13016,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -11143,26 +13028,26 @@
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11170,17 +13055,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="70"/>
       <c r="E11" s="70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
@@ -11190,17 +13075,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D12" s="75"/>
       <c r="E12" s="75" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="77"/>
       <c r="H12" s="78"/>
@@ -11210,17 +13095,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D13" s="75"/>
       <c r="E13" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="76" t="s">
         <v>80</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>77</v>
       </c>
       <c r="G13" s="77"/>
       <c r="H13" s="78"/>
@@ -11233,14 +13118,14 @@
         <v>3</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" s="75"/>
       <c r="E14" s="75" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="77"/>
       <c r="H14" s="78"/>
@@ -11250,14 +13135,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F15" s="75"/>
       <c r="G15" s="77"/>
@@ -11268,14 +13153,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D16" s="75"/>
       <c r="E16" s="75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" s="75"/>
       <c r="G16" s="77"/>
@@ -11286,14 +13171,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D17" s="75"/>
       <c r="E17" s="75" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77"/>
@@ -11304,14 +13189,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D18" s="75"/>
       <c r="E18" s="75" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F18" s="75"/>
       <c r="G18" s="77"/>
@@ -11322,18 +13207,18 @@
         <v>9</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D19" s="80"/>
       <c r="E19" s="77" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H19" s="78"/>
     </row>
@@ -11459,7 +13344,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -11471,22 +13356,22 @@
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11494,16 +13379,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="94" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="94"/>
       <c r="D34" s="95" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
       <c r="G34" s="72" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -11559,7 +13444,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -11571,22 +13456,22 @@
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11651,7 +13536,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -11663,22 +13548,22 @@
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="66" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11686,19 +13571,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="114" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C50" s="95" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D50" s="95"/>
       <c r="E50" s="95"/>
       <c r="F50" s="95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G50" s="95"/>
       <c r="H50" s="95" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11706,30 +13591,40 @@
         <v>2</v>
       </c>
       <c r="B51" s="107" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C51" s="98" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D51" s="98"/>
       <c r="E51" s="98"/>
       <c r="F51" s="98" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G51" s="98"/>
       <c r="H51" s="98" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="106"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="98"/>
+      <c r="A52" s="106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="98" t="s">
+        <v>74</v>
+      </c>
       <c r="D52" s="98"/>
       <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
+      <c r="F52" s="98" t="s">
+        <v>119</v>
+      </c>
       <c r="G52" s="98"/>
-      <c r="H52" s="108"/>
+      <c r="H52" s="108" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="106"/>
@@ -12776,7 +14671,7 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -12794,7 +14689,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -12832,7 +14727,7 @@
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="37" t="s">
@@ -12859,7 +14754,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12932,7 +14827,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -12944,26 +14839,26 @@
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12971,17 +14866,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
@@ -12991,17 +14886,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="77"/>
       <c r="H12" s="78"/>
@@ -13011,17 +14906,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13" s="77"/>
       <c r="H13" s="78"/>
@@ -13031,17 +14926,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="77"/>
       <c r="H14" s="78"/>
@@ -13051,17 +14946,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G15" s="77"/>
       <c r="H15" s="78"/>
@@ -13071,14 +14966,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16" s="116"/>
       <c r="G16" s="77"/>
@@ -13089,14 +14984,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D17" s="76"/>
       <c r="E17" s="76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="77"/>
@@ -13246,7 +15141,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -13258,22 +15153,22 @@
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13281,16 +15176,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="71"/>
       <c r="F34" s="71"/>
       <c r="G34" s="71" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -13299,11 +15194,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -13315,11 +15210,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -13358,7 +15253,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -13370,22 +15265,22 @@
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13393,19 +15288,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="119" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13413,19 +15308,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="120" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13470,7 +15365,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -13482,22 +15377,22 @@
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="121" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13505,19 +15400,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="71" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13525,19 +15420,19 @@
         <v>2</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C51" s="76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D51" s="76"/>
       <c r="E51" s="76"/>
       <c r="F51" s="76" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G51" s="76"/>
       <c r="H51" s="76" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14597,8 +16492,8 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14615,7 +16510,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -14653,7 +16548,7 @@
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="37" t="s">
@@ -14680,7 +16575,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14753,7 +16648,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -14765,26 +16660,26 @@
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14792,17 +16687,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
@@ -14812,17 +16707,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="80"/>
       <c r="H12" s="99"/>
@@ -14832,14 +16727,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F13" s="80"/>
       <c r="G13" s="80"/>
@@ -14850,14 +16745,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="105" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F14" s="80"/>
       <c r="G14" s="80"/>
@@ -15043,7 +16938,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -15055,22 +16950,22 @@
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15078,16 +16973,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="71"/>
       <c r="F34" s="71"/>
       <c r="G34" s="70" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -15096,11 +16991,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -15112,11 +17007,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -15155,7 +17050,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -15167,22 +17062,22 @@
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15190,19 +17085,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15210,19 +17105,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15267,7 +17162,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -15279,22 +17174,22 @@
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="66" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16369,8 +18264,8 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16387,7 +18282,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -16425,7 +18320,7 @@
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="37" t="s">
@@ -16452,7 +18347,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16517,7 +18412,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -16527,7 +18422,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -16539,26 +18434,26 @@
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16566,17 +18461,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="126"/>
       <c r="E11" s="127" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
@@ -16586,14 +18481,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D12" s="123"/>
       <c r="E12" s="105" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F12" s="116"/>
       <c r="G12" s="77"/>
@@ -16604,17 +18499,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D13" s="123"/>
       <c r="E13" s="105" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13" s="77"/>
       <c r="H13" s="78"/>
@@ -16624,17 +18519,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D14" s="123"/>
       <c r="E14" s="105" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="77"/>
       <c r="H14" s="78"/>
@@ -16819,7 +18714,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -16831,22 +18726,22 @@
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16854,16 +18749,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="71"/>
       <c r="F34" s="71"/>
       <c r="G34" s="72" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -16872,11 +18767,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -16925,7 +18820,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -16937,22 +18832,22 @@
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16960,19 +18855,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C42" s="130" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D42" s="130"/>
       <c r="E42" s="130"/>
       <c r="F42" s="131" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G42" s="131"/>
       <c r="H42" s="129" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17027,7 +18922,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -17039,22 +18934,22 @@
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="121" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17062,19 +18957,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C50" s="133" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D50" s="133"/>
       <c r="E50" s="133"/>
       <c r="F50" s="134" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G50" s="134"/>
       <c r="H50" s="133" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18142,8 +20037,8 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18160,7 +20055,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -18198,7 +20093,7 @@
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="37" t="s">
@@ -18225,7 +20120,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18298,7 +20193,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -18310,26 +20205,26 @@
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18337,17 +20232,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
@@ -18357,17 +20252,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="77"/>
       <c r="H12" s="78"/>
@@ -18377,17 +20272,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13" s="77"/>
       <c r="H13" s="78"/>
@@ -18397,17 +20292,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="77"/>
       <c r="H14" s="78"/>
@@ -18417,17 +20312,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G15" s="77"/>
       <c r="H15" s="78"/>
@@ -18437,20 +20332,20 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D16" s="124"/>
       <c r="E16" s="77" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H16" s="78"/>
     </row>
@@ -18610,7 +20505,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -18622,22 +20517,22 @@
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="121" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="121"/>
       <c r="D33" s="138" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E33" s="139"/>
       <c r="F33" s="140"/>
       <c r="G33" s="89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18645,16 +20540,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="71"/>
       <c r="F34" s="71"/>
       <c r="G34" s="70" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -18663,11 +20558,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -18679,11 +20574,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -18722,7 +20617,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -18734,22 +20629,22 @@
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="142" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18757,19 +20652,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="144" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C42" s="144" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D42" s="144"/>
       <c r="E42" s="144"/>
       <c r="F42" s="144" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G42" s="144"/>
       <c r="H42" s="145" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18777,19 +20672,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="146" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18834,7 +20729,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -18846,22 +20741,22 @@
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="121" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19936,8 +21831,8 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19954,7 +21849,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -19992,7 +21887,7 @@
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="37" t="s">
@@ -20019,7 +21914,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20070,7 +21965,7 @@
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="63" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
@@ -20092,7 +21987,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -20104,26 +21999,26 @@
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20131,17 +22026,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="150" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
@@ -20151,14 +22046,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
@@ -20368,7 +22263,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -20380,22 +22275,22 @@
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="121" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H33" s="142" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20403,16 +22298,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="151" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="151"/>
       <c r="F34" s="151"/>
       <c r="G34" s="152" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H34" s="149"/>
     </row>
@@ -20468,7 +22363,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -20480,22 +22375,22 @@
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20560,7 +22455,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -20572,40 +22467,40 @@
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="121" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="113"/>
       <c r="B50" s="70" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C50" s="70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D50" s="70"/>
       <c r="E50" s="70"/>
       <c r="F50" s="70" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G50" s="70"/>
       <c r="H50" s="119" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21668,7 +23563,7 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -21686,7 +23581,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -21724,7 +23619,7 @@
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="37" t="s">
@@ -21751,7 +23646,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21824,7 +23719,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -21836,26 +23731,26 @@
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21863,17 +23758,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
@@ -21883,17 +23778,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="77"/>
       <c r="H12" s="78"/>
@@ -22102,7 +23997,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -22114,22 +24009,22 @@
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22137,16 +24032,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="71"/>
       <c r="F34" s="71"/>
       <c r="G34" s="71" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -22202,7 +24097,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -22214,22 +24109,22 @@
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22294,7 +24189,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -22306,22 +24201,22 @@
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="121" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22329,19 +24224,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C50" s="152" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D50" s="148"/>
       <c r="E50" s="149"/>
       <c r="F50" s="71" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="119" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/document/DB/データベース設計書.xlsx
+++ b/document/DB/データベース設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="201">
   <si>
     <t xml:space="preserve">作成日</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique</t>
   </si>
   <si>
     <t xml:space="preserve">パスワード</t>
@@ -2325,9 +2328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1270800</xdr:colOff>
+      <xdr:colOff>1270440</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2341,7 +2344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="386640" y="6229080"/>
-          <a:ext cx="8286120" cy="5952960"/>
+          <a:ext cx="8285760" cy="5952600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4800,14 +4803,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>80</v>
@@ -4820,14 +4823,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" s="153" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13" s="153"/>
       <c r="E13" s="76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>80</v>
@@ -4840,14 +4843,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="153" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14" s="153"/>
       <c r="E14" s="76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>80</v>
@@ -4860,14 +4863,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="153" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D15" s="153"/>
       <c r="E15" s="76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="77"/>
@@ -4878,14 +4881,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="153" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="153"/>
       <c r="E16" s="76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>80</v>
@@ -4898,14 +4901,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" s="153" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="153"/>
       <c r="E17" s="76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -5055,7 +5058,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -5070,16 +5073,16 @@
         <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>72</v>
@@ -5090,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -5155,7 +5158,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -5170,19 +5173,19 @@
         <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5190,15 +5193,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C42" s="103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" s="103"/>
       <c r="E42" s="103"/>
       <c r="F42" s="103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G42" s="103"/>
       <c r="H42" s="104" t="s">
@@ -5257,7 +5260,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -5272,19 +5275,19 @@
         <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6375,7 +6378,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="155" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -6483,7 +6486,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="164" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" s="162"/>
       <c r="C6" s="32"/>
@@ -6538,7 +6541,7 @@
       <c r="E9" s="61"/>
       <c r="F9" s="168"/>
       <c r="G9" s="169" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H9" s="169"/>
       <c r="I9" s="169"/>
@@ -6555,19 +6558,19 @@
       <c r="E10" s="170"/>
       <c r="F10" s="171"/>
       <c r="G10" s="172" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H10" s="169" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I10" s="169" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J10" s="169" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" s="169" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L10" s="169"/>
       <c r="M10" s="168"/>
@@ -6575,7 +6578,7 @@
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="167"/>
       <c r="B11" s="173" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -8399,7 +8402,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -8414,16 +8417,16 @@
         <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>72</v>
@@ -8491,7 +8494,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -8506,19 +8509,19 @@
         <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8583,7 +8586,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -8598,19 +8601,19 @@
         <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9682,7 +9685,7 @@
   </sheetPr>
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -12858,8 +12861,8 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13087,7 +13090,9 @@
       <c r="F12" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="77"/>
+      <c r="G12" s="77" t="s">
+        <v>81</v>
+      </c>
       <c r="H12" s="78"/>
     </row>
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13095,14 +13100,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="75"/>
       <c r="E13" s="75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>80</v>
@@ -13118,7 +13123,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" s="75"/>
       <c r="E14" s="75" t="s">
@@ -13135,14 +13140,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="75"/>
       <c r="G15" s="77"/>
@@ -13153,14 +13158,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="75"/>
       <c r="E16" s="75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="75"/>
       <c r="G16" s="77"/>
@@ -13171,14 +13176,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="75"/>
       <c r="E17" s="75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77"/>
@@ -13189,14 +13194,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="75"/>
       <c r="E18" s="75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="75"/>
       <c r="G18" s="77"/>
@@ -13207,18 +13212,18 @@
         <v>9</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" s="80"/>
       <c r="E19" s="77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19" s="78"/>
     </row>
@@ -13344,7 +13349,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -13359,16 +13364,16 @@
         <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>72</v>
@@ -13379,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="94"/>
       <c r="D34" s="95" t="s">
@@ -13388,7 +13393,7 @@
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
       <c r="G34" s="72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -13444,7 +13449,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -13459,19 +13464,19 @@
         <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13536,7 +13541,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -13551,19 +13556,19 @@
         <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13571,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="95" t="s">
         <v>74</v>
@@ -13579,11 +13584,11 @@
       <c r="D50" s="95"/>
       <c r="E50" s="95"/>
       <c r="F50" s="95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G50" s="95"/>
       <c r="H50" s="95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13591,7 +13596,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="98" t="s">
         <v>74</v>
@@ -13599,11 +13604,11 @@
       <c r="D51" s="98"/>
       <c r="E51" s="98"/>
       <c r="F51" s="98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G51" s="98"/>
       <c r="H51" s="98" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13611,7 +13616,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="98" t="s">
         <v>74</v>
@@ -13619,11 +13624,11 @@
       <c r="D52" s="98"/>
       <c r="E52" s="98"/>
       <c r="F52" s="98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G52" s="98"/>
       <c r="H52" s="108" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14886,14 +14891,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>80</v>
@@ -14906,14 +14911,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>80</v>
@@ -14926,14 +14931,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>80</v>
@@ -14946,14 +14951,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>80</v>
@@ -14966,14 +14971,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="116"/>
       <c r="G16" s="77"/>
@@ -14984,14 +14989,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D17" s="76"/>
       <c r="E17" s="76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="77"/>
@@ -15141,7 +15146,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -15156,16 +15161,16 @@
         <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>72</v>
@@ -15176,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -15194,11 +15199,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -15210,11 +15215,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -15253,7 +15258,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -15268,19 +15273,19 @@
         <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15288,15 +15293,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="119" t="s">
@@ -15308,15 +15313,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="120" t="s">
@@ -15365,7 +15370,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -15380,19 +15385,19 @@
         <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15400,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>74</v>
@@ -15408,11 +15413,11 @@
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15420,7 +15425,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" s="76" t="s">
         <v>74</v>
@@ -15428,11 +15433,11 @@
       <c r="D51" s="76"/>
       <c r="E51" s="76"/>
       <c r="F51" s="76" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G51" s="76"/>
       <c r="H51" s="76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16707,14 +16712,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>80</v>
@@ -16727,14 +16732,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" s="80"/>
       <c r="G13" s="80"/>
@@ -16745,14 +16750,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="80"/>
       <c r="G14" s="80"/>
@@ -16938,7 +16943,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -16953,16 +16958,16 @@
         <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>72</v>
@@ -16973,7 +16978,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -16991,11 +16996,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -17007,11 +17012,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -17050,7 +17055,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -17065,19 +17070,19 @@
         <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17085,15 +17090,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="71" t="s">
         <v>116</v>
-      </c>
-      <c r="C42" s="71" t="s">
-        <v>115</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="71" t="s">
@@ -17105,15 +17110,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="76" t="s">
         <v>144</v>
-      </c>
-      <c r="C43" s="76" t="s">
-        <v>143</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="76" t="s">
@@ -17162,7 +17167,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -17177,19 +17182,19 @@
         <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18412,7 +18417,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -18481,14 +18486,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" s="123"/>
       <c r="E12" s="105" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="116"/>
       <c r="G12" s="77"/>
@@ -18499,14 +18504,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D13" s="123"/>
       <c r="E13" s="105" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>80</v>
@@ -18519,14 +18524,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" s="123"/>
       <c r="E14" s="105" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>80</v>
@@ -18714,7 +18719,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -18729,16 +18734,16 @@
         <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>72</v>
@@ -18749,7 +18754,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -18758,7 +18763,7 @@
       <c r="E34" s="71"/>
       <c r="F34" s="71"/>
       <c r="G34" s="72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -18767,11 +18772,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -18820,7 +18825,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -18835,19 +18840,19 @@
         <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18855,15 +18860,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C42" s="130" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" s="130"/>
       <c r="E42" s="130"/>
       <c r="F42" s="131" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G42" s="131"/>
       <c r="H42" s="129" t="s">
@@ -18922,7 +18927,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -18937,19 +18942,19 @@
         <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18957,7 +18962,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C50" s="133" t="s">
         <v>74</v>
@@ -18965,11 +18970,11 @@
       <c r="D50" s="133"/>
       <c r="E50" s="133"/>
       <c r="F50" s="134" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G50" s="134"/>
       <c r="H50" s="133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20252,14 +20257,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>162</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>161</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>80</v>
@@ -20272,14 +20277,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>80</v>
@@ -20292,14 +20297,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>80</v>
@@ -20312,14 +20317,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>80</v>
@@ -20332,20 +20337,20 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D16" s="124"/>
       <c r="E16" s="77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H16" s="78"/>
     </row>
@@ -20505,7 +20510,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -20520,16 +20525,16 @@
         <v>66</v>
       </c>
       <c r="B33" s="121" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="121"/>
       <c r="D33" s="138" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="139"/>
       <c r="F33" s="140"/>
       <c r="G33" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>72</v>
@@ -20540,7 +20545,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -20558,11 +20563,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -20574,11 +20579,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -20617,7 +20622,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -20632,19 +20637,19 @@
         <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="142" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20652,15 +20657,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="144" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" s="144" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D42" s="144"/>
       <c r="E42" s="144"/>
       <c r="F42" s="144" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G42" s="144"/>
       <c r="H42" s="145" t="s">
@@ -20672,15 +20677,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="146" t="s">
@@ -20729,7 +20734,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -20744,19 +20749,19 @@
         <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21965,7 +21970,7 @@
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
@@ -22046,10 +22051,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -22263,7 +22268,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -22278,16 +22283,16 @@
         <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="121" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="142" t="s">
         <v>72</v>
@@ -22298,7 +22303,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="151" t="s">
@@ -22363,7 +22368,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -22378,19 +22383,19 @@
         <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22455,7 +22460,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -22470,25 +22475,25 @@
         <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="113"/>
       <c r="B50" s="70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C50" s="70" t="s">
         <v>74</v>
@@ -22496,11 +22501,11 @@
       <c r="D50" s="70"/>
       <c r="E50" s="70"/>
       <c r="F50" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G50" s="70"/>
       <c r="H50" s="119" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23778,14 +23783,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>80</v>
@@ -23997,7 +24002,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -24012,16 +24017,16 @@
         <v>66</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>72</v>
@@ -24032,7 +24037,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -24097,7 +24102,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -24112,19 +24117,19 @@
         <v>66</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24189,7 +24194,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -24204,19 +24209,19 @@
         <v>66</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24224,7 +24229,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C50" s="152" t="s">
         <v>74</v>
@@ -24232,11 +24237,11 @@
       <c r="D50" s="148"/>
       <c r="E50" s="149"/>
       <c r="F50" s="71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/document/DB/データベース設計書.xlsx
+++ b/document/DB/データベース設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="245">
   <si>
     <t xml:space="preserve">作成日</t>
   </si>
@@ -603,6 +603,18 @@
     <t xml:space="preserve">False(0)</t>
   </si>
   <si>
+    <t xml:space="preserve">メールアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">インデックス情報</t>
   </si>
   <si>
@@ -616,9 +628,6 @@
   </si>
   <si>
     <t xml:space="preserve">PRIMARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">リレーションシップ情報(FK側)</t>
@@ -828,25 +837,7 @@
     <t xml:space="preserve">goods_categorys</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">商品カテゴリ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">テーブルのエンティティ</t>
-    </r>
+    <t xml:space="preserve">商品カテゴリテーブルのエンティティ</t>
   </si>
   <si>
     <t xml:space="preserve">カテゴリー名</t>
@@ -1027,25 +1018,7 @@
     <t xml:space="preserve">管理者会員更新</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">管理者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">会員情報閲覧</t>
-    </r>
+    <t xml:space="preserve">管理者会員情報閲覧</t>
   </si>
   <si>
     <t xml:space="preserve">商品登録</t>
@@ -1068,7 +1041,7 @@
     <numFmt numFmtId="167" formatCode="YYYY/M/D"/>
     <numFmt numFmtId="168" formatCode="M\月D\日"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1222,24 +1195,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="MS PGothic"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1702,7 +1663,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="184">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2327,7 +2288,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2417,10 +2378,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2526,9 +2483,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1998360</xdr:colOff>
+      <xdr:colOff>1998000</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2542,7 +2499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53640" y="6216840"/>
-          <a:ext cx="9346680" cy="6454800"/>
+          <a:ext cx="9346320" cy="6454440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4786,7 +4743,7 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4934,7 +4891,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -5003,14 +4960,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>82</v>
@@ -5023,14 +4980,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -5043,14 +5000,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C14" s="154" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D14" s="154"/>
       <c r="E14" s="76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>82</v>
@@ -5063,14 +5020,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C15" s="154" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D15" s="154"/>
       <c r="E15" s="76" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="77"/>
@@ -5081,14 +5038,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C16" s="154" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D16" s="154"/>
       <c r="E16" s="76" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>82</v>
@@ -5101,14 +5058,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C17" s="154" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="76" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -5258,7 +5215,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -5273,16 +5230,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>74</v>
@@ -5293,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -5358,7 +5315,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -5373,19 +5330,19 @@
         <v>68</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5393,15 +5350,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C42" s="103" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D42" s="103"/>
       <c r="E42" s="103"/>
       <c r="F42" s="103" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G42" s="103"/>
       <c r="H42" s="104" t="s">
@@ -5460,7 +5417,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -5475,19 +5432,19 @@
         <v>68</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="121" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6585,7 +6542,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="156" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -6625,7 +6582,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="162" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M2" s="162"/>
       <c r="N2" s="163"/>
@@ -6636,7 +6593,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="165" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C3" s="165"/>
       <c r="D3" s="165"/>
@@ -6661,7 +6618,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="165" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C4" s="165"/>
       <c r="D4" s="165"/>
@@ -6713,10 +6670,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="169" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B6" s="165" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C6" s="165"/>
       <c r="D6" s="165"/>
@@ -6737,7 +6694,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="165" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C7" s="165"/>
       <c r="D7" s="165"/>
@@ -6778,7 +6735,7 @@
       <c r="E9" s="61"/>
       <c r="F9" s="173"/>
       <c r="G9" s="174" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H9" s="174"/>
       <c r="I9" s="174"/>
@@ -6825,37 +6782,37 @@
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="172"/>
       <c r="B11" s="178" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H11" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I11" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J11" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K11" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L11" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M11" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N11" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O11" s="173"/>
     </row>
@@ -6863,34 +6820,34 @@
       <c r="A12" s="172"/>
       <c r="B12" s="178"/>
       <c r="C12" s="40" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H12" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I12" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J12" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K12" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L12" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M12" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N12" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O12" s="173"/>
     </row>
@@ -6898,34 +6855,34 @@
       <c r="A13" s="172"/>
       <c r="B13" s="178"/>
       <c r="C13" s="40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H13" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I13" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J13" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K13" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L13" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M13" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N13" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O13" s="173"/>
     </row>
@@ -6933,34 +6890,34 @@
       <c r="A14" s="172"/>
       <c r="B14" s="178"/>
       <c r="C14" s="40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="174" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H14" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I14" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J14" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K14" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L14" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M14" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N14" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O14" s="173"/>
     </row>
@@ -6968,34 +6925,34 @@
       <c r="A15" s="172"/>
       <c r="B15" s="178"/>
       <c r="C15" s="40" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="174" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H15" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I15" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J15" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K15" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L15" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M15" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N15" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O15" s="173"/>
     </row>
@@ -7003,34 +6960,34 @@
       <c r="A16" s="172"/>
       <c r="B16" s="178"/>
       <c r="C16" s="40" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="174" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H16" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I16" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J16" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K16" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L16" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M16" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N16" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O16" s="173"/>
     </row>
@@ -7038,34 +6995,34 @@
       <c r="A17" s="172"/>
       <c r="B17" s="178"/>
       <c r="C17" s="40" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H17" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I17" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J17" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K17" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L17" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M17" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N17" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O17" s="173"/>
     </row>
@@ -7073,34 +7030,34 @@
       <c r="A18" s="172"/>
       <c r="B18" s="178"/>
       <c r="C18" s="40" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H18" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I18" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J18" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K18" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L18" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M18" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N18" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O18" s="173"/>
     </row>
@@ -7108,34 +7065,34 @@
       <c r="A19" s="172"/>
       <c r="B19" s="178"/>
       <c r="C19" s="40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H19" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I19" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J19" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K19" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L19" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M19" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N19" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O19" s="173"/>
     </row>
@@ -7143,34 +7100,34 @@
       <c r="A20" s="172"/>
       <c r="B20" s="178"/>
       <c r="C20" s="40" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H20" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I20" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J20" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K20" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L20" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M20" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N20" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O20" s="173"/>
     </row>
@@ -7178,34 +7135,34 @@
       <c r="A21" s="172"/>
       <c r="B21" s="178"/>
       <c r="C21" s="40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H21" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I21" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J21" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K21" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L21" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M21" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N21" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O21" s="173"/>
     </row>
@@ -7213,34 +7170,34 @@
       <c r="A22" s="172"/>
       <c r="B22" s="178"/>
       <c r="C22" s="40" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H22" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I22" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J22" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K22" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L22" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M22" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N22" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O22" s="173"/>
     </row>
@@ -7248,34 +7205,34 @@
       <c r="A23" s="172"/>
       <c r="B23" s="178"/>
       <c r="C23" s="40" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H23" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I23" s="174" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J23" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K23" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L23" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M23" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N23" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O23" s="173"/>
     </row>
@@ -7283,34 +7240,34 @@
       <c r="A24" s="172"/>
       <c r="B24" s="178"/>
       <c r="C24" s="40" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H24" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I24" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J24" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K24" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L24" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M24" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N24" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O24" s="173"/>
     </row>
@@ -7318,34 +7275,34 @@
       <c r="A25" s="172"/>
       <c r="B25" s="178"/>
       <c r="C25" s="40" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H25" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I25" s="174" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J25" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K25" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L25" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M25" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N25" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O25" s="173"/>
     </row>
@@ -7353,34 +7310,34 @@
       <c r="A26" s="172"/>
       <c r="B26" s="178"/>
       <c r="C26" s="40" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H26" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I26" s="174" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J26" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K26" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L26" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M26" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N26" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O26" s="173"/>
     </row>
@@ -7388,34 +7345,34 @@
       <c r="A27" s="172"/>
       <c r="B27" s="178"/>
       <c r="C27" s="40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H27" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I27" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J27" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K27" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L27" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M27" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N27" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O27" s="173"/>
     </row>
@@ -7423,34 +7380,34 @@
       <c r="A28" s="172"/>
       <c r="B28" s="178"/>
       <c r="C28" s="40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H28" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I28" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J28" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K28" s="174" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L28" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M28" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N28" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O28" s="173"/>
     </row>
@@ -7458,34 +7415,34 @@
       <c r="A29" s="172"/>
       <c r="B29" s="178"/>
       <c r="C29" s="40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H29" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I29" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J29" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K29" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L29" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M29" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N29" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O29" s="173"/>
     </row>
@@ -7493,34 +7450,34 @@
       <c r="A30" s="172"/>
       <c r="B30" s="178"/>
       <c r="C30" s="40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
       <c r="G30" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H30" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I30" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J30" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K30" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L30" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M30" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N30" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O30" s="173"/>
     </row>
@@ -7528,34 +7485,34 @@
       <c r="A31" s="172"/>
       <c r="B31" s="178"/>
       <c r="C31" s="40" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
       <c r="G31" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H31" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I31" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J31" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K31" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L31" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M31" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N31" s="177" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O31" s="173"/>
     </row>
@@ -7563,34 +7520,34 @@
       <c r="A32" s="172"/>
       <c r="B32" s="178"/>
       <c r="C32" s="40" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H32" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I32" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J32" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K32" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L32" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M32" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N32" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O32" s="173"/>
     </row>
@@ -7598,34 +7555,34 @@
       <c r="A33" s="172"/>
       <c r="B33" s="178"/>
       <c r="C33" s="40" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="174" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H33" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I33" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J33" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K33" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L33" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M33" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N33" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O33" s="173"/>
     </row>
@@ -7633,34 +7590,34 @@
       <c r="A34" s="172"/>
       <c r="B34" s="178"/>
       <c r="C34" s="40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
       <c r="G34" s="174" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H34" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I34" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J34" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K34" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L34" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M34" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N34" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O34" s="173"/>
     </row>
@@ -7668,69 +7625,69 @@
       <c r="A35" s="172"/>
       <c r="B35" s="178"/>
       <c r="C35" s="40" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
       <c r="G35" s="174" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H35" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I35" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J35" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K35" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L35" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M35" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N35" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O35" s="173"/>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="172"/>
       <c r="B36" s="178"/>
-      <c r="C36" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
+      <c r="C36" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H36" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I36" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J36" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K36" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L36" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M36" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N36" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O36" s="173"/>
     </row>
@@ -7738,34 +7695,34 @@
       <c r="A37" s="172"/>
       <c r="B37" s="178"/>
       <c r="C37" s="40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
       <c r="G37" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H37" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I37" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J37" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K37" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L37" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M37" s="174" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N37" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O37" s="173"/>
     </row>
@@ -7773,34 +7730,34 @@
       <c r="A38" s="172"/>
       <c r="B38" s="178"/>
       <c r="C38" s="40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
       <c r="G38" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H38" s="174" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I38" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J38" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K38" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L38" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M38" s="174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N38" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O38" s="173"/>
     </row>
@@ -7808,34 +7765,34 @@
       <c r="A39" s="172"/>
       <c r="B39" s="178"/>
       <c r="C39" s="40" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
       <c r="G39" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H39" s="174" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I39" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J39" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K39" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L39" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M39" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N39" s="174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O39" s="173"/>
     </row>
@@ -7857,21 +7814,21 @@
       <c r="O40" s="173"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="180"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="181"/>
-      <c r="G41" s="181"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="181"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="181"/>
-      <c r="M41" s="181"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="182"/>
+      <c r="A41" s="179"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="180"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="181"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8952,7 +8909,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="115"/>
-      <c r="C3" s="183" t="s">
+      <c r="C3" s="182" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="55"/>
@@ -8970,10 +8927,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="115"/>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="183"/>
+      <c r="D4" s="182"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="38" t="s">
@@ -9090,8 +9047,8 @@
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="68"/>
       <c r="B11" s="69"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
@@ -9299,7 +9256,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -9314,16 +9271,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>74</v>
@@ -9391,7 +9348,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -9406,19 +9363,19 @@
         <v>68</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9483,7 +9440,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -9498,19 +9455,19 @@
         <v>68</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="66" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10582,7 +10539,7 @@
   </sheetPr>
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -13762,8 +13719,8 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14129,12 +14086,22 @@
       <c r="H19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="79"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="79" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>104</v>
+      </c>
       <c r="D20" s="80"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="E20" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>106</v>
+      </c>
       <c r="G20" s="77"/>
       <c r="H20" s="78"/>
     </row>
@@ -14250,7 +14217,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -14265,16 +14232,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>74</v>
@@ -14285,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="94" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="94"/>
       <c r="D34" s="95" t="s">
@@ -14294,7 +14261,7 @@
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
       <c r="G34" s="72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -14350,7 +14317,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -14365,19 +14332,19 @@
         <v>68</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14442,7 +14409,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -14457,19 +14424,19 @@
         <v>68</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="66" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14477,7 +14444,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="114" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C50" s="95" t="s">
         <v>76</v>
@@ -14485,11 +14452,11 @@
       <c r="D50" s="95"/>
       <c r="E50" s="95"/>
       <c r="F50" s="95" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G50" s="95"/>
       <c r="H50" s="95" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14497,7 +14464,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="107" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C51" s="98" t="s">
         <v>76</v>
@@ -14505,11 +14472,11 @@
       <c r="D51" s="98"/>
       <c r="E51" s="98"/>
       <c r="F51" s="98" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G51" s="98"/>
       <c r="H51" s="98" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14517,7 +14484,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="107" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C52" s="98" t="s">
         <v>76</v>
@@ -14525,11 +14492,11 @@
       <c r="D52" s="98"/>
       <c r="E52" s="98"/>
       <c r="F52" s="98" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G52" s="98"/>
       <c r="H52" s="108" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15729,7 +15696,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -15798,10 +15765,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -15818,14 +15785,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -15838,14 +15805,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>82</v>
@@ -15858,14 +15825,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>82</v>
@@ -15878,10 +15845,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="76" t="s">
@@ -15896,10 +15863,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D17" s="76"/>
       <c r="E17" s="76" t="s">
@@ -16053,7 +16020,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -16068,16 +16035,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>74</v>
@@ -16088,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -16106,11 +16073,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -16122,11 +16089,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -16165,7 +16132,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -16180,19 +16147,19 @@
         <v>68</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16200,15 +16167,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="119" t="s">
@@ -16220,15 +16187,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="120" t="s">
@@ -16277,7 +16244,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -16292,19 +16259,19 @@
         <v>68</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="121" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16312,7 +16279,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>76</v>
@@ -16320,11 +16287,11 @@
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="71" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16332,7 +16299,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C51" s="76" t="s">
         <v>76</v>
@@ -16340,11 +16307,11 @@
       <c r="D51" s="76"/>
       <c r="E51" s="76"/>
       <c r="F51" s="76" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G51" s="76"/>
       <c r="H51" s="76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17556,7 +17523,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -17625,10 +17592,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -17645,10 +17612,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
@@ -17663,10 +17630,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="105" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
@@ -17856,7 +17823,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -17871,16 +17838,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>74</v>
@@ -17891,7 +17858,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -17909,11 +17876,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -17925,11 +17892,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -17968,7 +17935,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -17983,19 +17950,19 @@
         <v>68</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18003,15 +17970,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="71" t="s">
@@ -18023,15 +17990,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="76" t="s">
@@ -18080,7 +18047,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -18095,19 +18062,19 @@
         <v>68</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="66" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19334,7 +19301,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -19403,10 +19370,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D12" s="123"/>
       <c r="E12" s="105" t="s">
@@ -19421,14 +19388,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D13" s="123"/>
       <c r="E13" s="105" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -19441,10 +19408,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D14" s="123"/>
       <c r="E14" s="105" t="s">
@@ -19636,7 +19603,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -19651,16 +19618,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>74</v>
@@ -19671,7 +19638,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -19680,7 +19647,7 @@
       <c r="E34" s="71"/>
       <c r="F34" s="71"/>
       <c r="G34" s="72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H34" s="73"/>
     </row>
@@ -19689,11 +19656,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -19742,7 +19709,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -19757,19 +19724,19 @@
         <v>68</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19777,15 +19744,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C42" s="130" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D42" s="130"/>
       <c r="E42" s="130"/>
       <c r="F42" s="131" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G42" s="131"/>
       <c r="H42" s="129" t="s">
@@ -19844,7 +19811,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -19859,19 +19826,19 @@
         <v>68</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="121" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19879,7 +19846,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C50" s="133" t="s">
         <v>76</v>
@@ -19887,11 +19854,11 @@
       <c r="D50" s="133"/>
       <c r="E50" s="133"/>
       <c r="F50" s="134" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G50" s="134"/>
       <c r="H50" s="133" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21111,7 +21078,7 @@
       </c>
       <c r="B8" s="136"/>
       <c r="C8" s="63" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -21180,10 +21147,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -21200,10 +21167,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
@@ -21220,10 +21187,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
@@ -21240,14 +21207,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>82</v>
@@ -21260,20 +21227,20 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D16" s="124"/>
       <c r="E16" s="77" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H16" s="78"/>
     </row>
@@ -21433,7 +21400,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -21448,16 +21415,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="121" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="121"/>
       <c r="D33" s="138" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="139"/>
       <c r="F33" s="140"/>
       <c r="G33" s="89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>74</v>
@@ -21468,7 +21435,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -21486,11 +21453,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -21502,11 +21469,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -21545,7 +21512,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -21560,19 +21527,19 @@
         <v>68</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="142" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21580,15 +21547,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="144" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C42" s="144" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D42" s="144"/>
       <c r="E42" s="144"/>
       <c r="F42" s="144" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G42" s="144"/>
       <c r="H42" s="145" t="s">
@@ -21600,15 +21567,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="146" t="s">
@@ -21657,7 +21624,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -21672,19 +21639,19 @@
         <v>68</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="121" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22896,7 +22863,7 @@
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
@@ -22910,7 +22877,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -22979,10 +22946,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -23196,7 +23163,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -23211,16 +23178,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="121" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="142" t="s">
         <v>74</v>
@@ -23231,7 +23198,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="152" t="s">
@@ -23296,7 +23263,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -23311,19 +23278,19 @@
         <v>68</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23388,7 +23355,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -23403,25 +23370,25 @@
         <v>68</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="121" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="113"/>
       <c r="B50" s="70" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C50" s="70" t="s">
         <v>76</v>
@@ -23429,11 +23396,11 @@
       <c r="D50" s="70"/>
       <c r="E50" s="70"/>
       <c r="F50" s="70" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G50" s="70"/>
       <c r="H50" s="119" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24648,7 +24615,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -24717,10 +24684,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -24936,7 +24903,7 @@
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="87"/>
@@ -24951,16 +24918,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="92"/>
       <c r="G33" s="89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>74</v>
@@ -24971,7 +24938,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -25036,7 +25003,7 @@
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="87"/>
@@ -25051,19 +25018,19 @@
         <v>68</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="89"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G41" s="89"/>
       <c r="H41" s="93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25128,7 +25095,7 @@
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="87"/>
@@ -25143,19 +25110,19 @@
         <v>68</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="121" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G49" s="121"/>
       <c r="H49" s="67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25163,7 +25130,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C50" s="153" t="s">
         <v>76</v>
@@ -25171,11 +25138,11 @@
       <c r="D50" s="148"/>
       <c r="E50" s="149"/>
       <c r="F50" s="71" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="119" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/document/DB/データベース設計書.xlsx
+++ b/document/DB/データベース設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="253">
   <si>
     <t xml:space="preserve">作成日</t>
   </si>
@@ -558,9 +558,6 @@
     <t xml:space="preserve">user_name</t>
   </si>
   <si>
-    <t xml:space="preserve">*/</t>
-  </si>
-  <si>
     <t xml:space="preserve">住所</t>
   </si>
   <si>
@@ -570,16 +567,25 @@
     <t xml:space="preserve">varchar(100)</t>
   </si>
   <si>
-    <t xml:space="preserve">郵便</t>
+    <t xml:space="preserve">郵便番号</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
+    <t xml:space="preserve">zip_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(7)</t>
   </si>
   <si>
     <t xml:space="preserve">住所（２つめ）</t>
   </si>
   <si>
     <t xml:space="preserve">address_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郵便番号２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zip_code_sub</t>
   </si>
   <si>
     <t xml:space="preserve">電話番号</t>
@@ -600,7 +606,7 @@
     <t xml:space="preserve">bit(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">1:男性 2:女性</t>
+    <t xml:space="preserve">0:未設定 1:男性 2:女性 3:その他</t>
   </si>
   <si>
     <t xml:space="preserve">管理者かどうか</t>
@@ -625,6 +631,9 @@
   </si>
   <si>
     <t xml:space="preserve">varchar(40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">インデックス情報</t>
@@ -808,12 +817,6 @@
   </si>
   <si>
     <t xml:space="preserve">datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合計金額</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_price</t>
   </si>
   <si>
     <t xml:space="preserve">buy_historys_FK</t>
@@ -1224,7 +1227,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,12 +1244,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEF413D"/>
-        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
@@ -1696,7 +1693,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="186">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2014,14 +2011,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2217,38 +2218,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2357,10 +2326,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2385,7 +2350,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2401,7 +2366,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2409,7 +2374,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2529,7 +2494,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFEF413D"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -2556,9 +2521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1997640</xdr:colOff>
+      <xdr:colOff>1997280</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2572,7 +2537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53640" y="6216840"/>
-          <a:ext cx="9345960" cy="6454080"/>
+          <a:ext cx="9345600" cy="6453720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4816,7 +4781,7 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -4848,7 +4813,7 @@
       <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
@@ -4870,7 +4835,7 @@
       <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="54" t="s">
         <v>64</v>
       </c>
@@ -4888,7 +4853,7 @@
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
@@ -4964,7 +4929,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -5012,7 +4977,7 @@
       <c r="A11" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="125" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="71" t="s">
@@ -5029,18 +4994,18 @@
       <c r="H11" s="73"/>
     </row>
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="97" t="n">
+      <c r="A12" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="106" t="s">
-        <v>195</v>
+      <c r="B12" s="107" t="s">
+        <v>196</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>82</v>
@@ -5049,18 +5014,18 @@
       <c r="H12" s="78"/>
     </row>
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="97" t="n">
+      <c r="A13" s="98" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="106" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="164" t="s">
+      <c r="B13" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="164"/>
+      <c r="C13" s="157" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="157"/>
       <c r="E13" s="76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -5069,18 +5034,18 @@
       <c r="H13" s="78"/>
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="97" t="n">
+      <c r="A14" s="98" t="n">
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="157" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="157"/>
+      <c r="E14" s="76" t="s">
         <v>201</v>
-      </c>
-      <c r="C14" s="164" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="76" t="s">
-        <v>200</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>82</v>
@@ -5093,14 +5058,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="164" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="164"/>
+      <c r="C15" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="157"/>
       <c r="E15" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="77"/>
@@ -5111,14 +5076,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="157"/>
+      <c r="E16" s="76" t="s">
         <v>206</v>
-      </c>
-      <c r="C16" s="164" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="76" t="s">
-        <v>205</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>82</v>
@@ -5131,14 +5096,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="164" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="164"/>
+        <v>163</v>
+      </c>
+      <c r="C17" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="157"/>
       <c r="E17" s="76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -5149,7 +5114,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="74"/>
-      <c r="C18" s="165"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="81"/>
       <c r="E18" s="76"/>
       <c r="F18" s="77"/>
@@ -5157,9 +5122,9 @@
       <c r="H18" s="78"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="74"/>
-      <c r="C19" s="165"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="81"/>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
@@ -5167,9 +5132,9 @@
       <c r="H19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="74"/>
-      <c r="C20" s="165"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="81"/>
       <c r="E20" s="77"/>
       <c r="F20" s="77"/>
@@ -5177,9 +5142,9 @@
       <c r="H20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="74"/>
-      <c r="C21" s="165"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="81"/>
       <c r="E21" s="77"/>
       <c r="F21" s="77"/>
@@ -5187,7 +5152,7 @@
       <c r="H21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="74"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -5197,7 +5162,7 @@
       <c r="H22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="74"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -5207,7 +5172,7 @@
       <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="74"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -5217,7 +5182,7 @@
       <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="74"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -5227,7 +5192,7 @@
       <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -5237,7 +5202,7 @@
       <c r="H26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="74"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -5247,7 +5212,7 @@
       <c r="H27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="74"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -5257,7 +5222,7 @@
       <c r="H28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="74"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -5267,63 +5232,63 @@
       <c r="H29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B32" s="64"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="94" t="s">
+      <c r="B33" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="95" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="119" t="n">
+      <c r="A34" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -5337,240 +5302,240 @@
       <c r="H34" s="73"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
       <c r="G35" s="81"/>
-      <c r="H35" s="100"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
       <c r="G36" s="81"/>
-      <c r="H36" s="100"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="100"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+    </row>
+    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="94" t="s">
-        <v>119</v>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="95" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="102" t="n">
+      <c r="A42" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="B42" s="103" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42" s="104"/>
-      <c r="H42" s="105" t="s">
+      <c r="B42" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="105"/>
+      <c r="H42" s="106" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="97"/>
-      <c r="B43" s="106"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="81"/>
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
-      <c r="H43" s="100"/>
+      <c r="H43" s="101"/>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="109"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="110"/>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="109"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="110"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="110"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="123"/>
+      <c r="B49" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="124"/>
       <c r="H49" s="67" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="119" t="n">
+      <c r="A50" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B50" s="71"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="159"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="152"/>
       <c r="F50" s="71"/>
       <c r="G50" s="71"/>
-      <c r="H50" s="121"/>
+      <c r="H50" s="122"/>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="109"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="110"/>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="109"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="110"/>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="109"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="110"/>
     </row>
     <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="110"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6614,26 +6579,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="166" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="168"/>
+      <c r="A1" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="160"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="161" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -6644,72 +6609,72 @@
       <c r="E2" s="54"/>
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="171" t="s">
+      <c r="I2" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="170" t="s">
+      <c r="J2" s="163"/>
+      <c r="K2" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="172" t="s">
-        <v>211</v>
-      </c>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
+      <c r="L2" s="164" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="175" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="170" t="s">
+      <c r="B3" s="167" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="162" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="175" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="B4" s="167" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="178" t="s">
+      <c r="L4" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="178"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="32"/>
@@ -6742,49 +6707,49 @@
       <c r="AB5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="179" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="175" t="s">
+      <c r="A6" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="180"/>
+      <c r="B6" s="167" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="172"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="175" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="180"/>
+      <c r="B7" s="167" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="172"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="182"/>
+      <c r="A8" s="174"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -6798,1079 +6763,1079 @@
       <c r="L8" s="61"/>
       <c r="M8" s="61"/>
       <c r="N8" s="61"/>
-      <c r="O8" s="183"/>
+      <c r="O8" s="175"/>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="182"/>
+      <c r="A9" s="174"/>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="183"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="176" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="175"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="182"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="184" t="s">
+      <c r="A10" s="174"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="184" t="s">
+      <c r="H10" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="184" t="s">
+      <c r="I10" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="184" t="s">
+      <c r="J10" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="184" t="s">
+      <c r="K10" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="187" t="s">
+      <c r="L10" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="187" t="s">
+      <c r="M10" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="187" t="s">
+      <c r="N10" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="183"/>
+      <c r="O10" s="175"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="182"/>
-      <c r="B11" s="188" t="s">
-        <v>217</v>
+      <c r="A11" s="174"/>
+      <c r="B11" s="180" t="s">
+        <v>218</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H11" s="184" t="s">
+      <c r="G11" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K11" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L11" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="M11" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="N11" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="O11" s="183"/>
+      <c r="H11" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L11" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="M11" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="N11" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="O11" s="175"/>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="182"/>
-      <c r="B12" s="188"/>
+      <c r="A12" s="174"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
-      <c r="G12" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="184" t="s">
+      <c r="G12" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="I12" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J12" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K12" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L12" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="M12" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="N12" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="O12" s="183"/>
+      <c r="H12" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="N12" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="O12" s="175"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="182"/>
-      <c r="B13" s="188"/>
+      <c r="A13" s="174"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
-      <c r="G13" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H13" s="184" t="s">
+      <c r="G13" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="I13" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J13" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K13" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="N13" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="O13" s="183"/>
+      <c r="H13" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K13" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="N13" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="O13" s="175"/>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="182"/>
-      <c r="B14" s="188"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="180"/>
       <c r="C14" s="40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="184" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="I14" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J14" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K14" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L14" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M14" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N14" s="184" t="s">
+      <c r="G14" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="O14" s="183"/>
+      <c r="H14" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N14" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14" s="175"/>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="182"/>
-      <c r="B15" s="188"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
-      <c r="G15" s="184" t="s">
-        <v>227</v>
-      </c>
-      <c r="H15" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="I15" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J15" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K15" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L15" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M15" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N15" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O15" s="183"/>
+      <c r="G15" s="176" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L15" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N15" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O15" s="175"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="182"/>
-      <c r="B16" s="188"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="I16" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J16" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K16" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M16" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N16" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="O16" s="183"/>
+      <c r="G16" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I16" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N16" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="O16" s="175"/>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="182"/>
-      <c r="B17" s="188"/>
+      <c r="A17" s="174"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H17" s="184" t="s">
+      <c r="G17" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="184" t="s">
+      <c r="H17" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L17" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M17" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N17" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K17" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L17" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M17" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N17" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="O17" s="183"/>
+      <c r="O17" s="175"/>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="182"/>
-      <c r="B18" s="188"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="180"/>
       <c r="C18" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H18" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" s="184" t="s">
+      <c r="G18" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J18" s="184" t="s">
+      <c r="H18" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="K18" s="184" t="s">
+      <c r="I18" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L18" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="L18" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="M18" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="N18" s="184" t="s">
+      <c r="M18" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="O18" s="183"/>
+      <c r="N18" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O18" s="175"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="182"/>
-      <c r="B19" s="188"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="184" t="s">
+      <c r="G19" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I19" s="184" t="s">
+      <c r="I19" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L19" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J19" s="184" t="s">
+      <c r="M19" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="K19" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="M19" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="N19" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O19" s="183"/>
+      <c r="N19" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O19" s="175"/>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="182"/>
-      <c r="B20" s="188"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="180"/>
       <c r="C20" s="40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="184" t="s">
+      <c r="G20" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="H20" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I20" s="184" t="s">
+      <c r="I20" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L20" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J20" s="184" t="s">
+      <c r="M20" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="K20" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="M20" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="N20" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O20" s="183"/>
+      <c r="N20" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O20" s="175"/>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="182"/>
-      <c r="B21" s="188"/>
+      <c r="A21" s="174"/>
+      <c r="B21" s="180"/>
       <c r="C21" s="40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="184" t="s">
+      <c r="G21" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="H21" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I21" s="184" t="s">
+      <c r="I21" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L21" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="184" t="s">
+      <c r="M21" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="K21" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L21" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="M21" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="N21" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O21" s="183"/>
+      <c r="N21" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O21" s="175"/>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="182"/>
-      <c r="B22" s="188"/>
+      <c r="A22" s="174"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H22" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I22" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="J22" s="184" t="s">
+      <c r="G22" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="K22" s="184" t="s">
+      <c r="H22" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="L22" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M22" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N22" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O22" s="183"/>
+      <c r="I22" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N22" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" s="175"/>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="182"/>
-      <c r="B23" s="188"/>
+      <c r="A23" s="174"/>
+      <c r="B23" s="180"/>
       <c r="C23" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H23" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I23" s="184" t="s">
-        <v>227</v>
-      </c>
-      <c r="J23" s="184" t="s">
+      <c r="G23" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="K23" s="184" t="s">
+      <c r="H23" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="L23" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M23" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N23" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O23" s="183"/>
+      <c r="I23" s="176" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N23" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" s="175"/>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="182"/>
-      <c r="B24" s="188"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="180"/>
       <c r="C24" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H24" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I24" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="J24" s="184" t="s">
+      <c r="G24" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="K24" s="184" t="s">
+      <c r="H24" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="L24" s="184" t="s">
+      <c r="I24" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="M24" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N24" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O24" s="183"/>
+      <c r="J24" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M24" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N24" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" s="175"/>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="182"/>
-      <c r="B25" s="188"/>
+      <c r="A25" s="174"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H25" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I25" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="J25" s="184" t="s">
+      <c r="G25" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="K25" s="184" t="s">
+      <c r="H25" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="L25" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M25" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N25" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O25" s="183"/>
+      <c r="I25" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N25" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" s="175"/>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="182"/>
-      <c r="B26" s="188"/>
+      <c r="A26" s="174"/>
+      <c r="B26" s="180"/>
       <c r="C26" s="40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H26" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I26" s="184" t="s">
-        <v>227</v>
-      </c>
-      <c r="J26" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="K26" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="L26" s="184" t="s">
+      <c r="G26" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="M26" s="184" t="s">
+      <c r="H26" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="N26" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O26" s="183"/>
+      <c r="I26" s="176" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N26" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" s="175"/>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="182"/>
-      <c r="B27" s="188"/>
+      <c r="A27" s="174"/>
+      <c r="B27" s="180"/>
       <c r="C27" s="40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H27" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I27" s="184" t="s">
+      <c r="G27" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J27" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="K27" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="L27" s="184" t="s">
+      <c r="H27" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="M27" s="184" t="s">
+      <c r="I27" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="N27" s="184" t="s">
+      <c r="K27" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="O27" s="183"/>
+      <c r="L27" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N27" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" s="175"/>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="182"/>
-      <c r="B28" s="188"/>
+      <c r="A28" s="174"/>
+      <c r="B28" s="180"/>
       <c r="C28" s="40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" s="184" t="s">
+      <c r="G28" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="184" t="s">
+      <c r="H28" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J28" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="K28" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="L28" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M28" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N28" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O28" s="183"/>
+      <c r="K28" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N28" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" s="175"/>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="182"/>
-      <c r="B29" s="188"/>
+      <c r="A29" s="174"/>
+      <c r="B29" s="180"/>
       <c r="C29" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H29" s="184" t="s">
+      <c r="G29" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J29" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K29" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L29" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="M29" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="N29" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="O29" s="183"/>
+      <c r="H29" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I29" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="N29" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="O29" s="175"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="182"/>
-      <c r="B30" s="188"/>
+      <c r="A30" s="174"/>
+      <c r="B30" s="180"/>
       <c r="C30" s="40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H30" s="184" t="s">
+      <c r="G30" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="I30" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J30" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K30" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L30" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="M30" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="N30" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="O30" s="183"/>
+      <c r="H30" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I30" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="M30" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="N30" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" s="175"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="182"/>
-      <c r="B31" s="188"/>
+      <c r="A31" s="174"/>
+      <c r="B31" s="180"/>
       <c r="C31" s="40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
-      <c r="G31" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H31" s="184" t="s">
+      <c r="G31" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="I31" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J31" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K31" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L31" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="M31" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="N31" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="O31" s="183"/>
+      <c r="H31" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I31" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="N31" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="O31" s="175"/>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="182"/>
-      <c r="B32" s="188"/>
+      <c r="A32" s="174"/>
+      <c r="B32" s="180"/>
       <c r="C32" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="I32" s="184" t="s">
+      <c r="G32" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J32" s="184" t="s">
+      <c r="H32" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="K32" s="184" t="s">
+      <c r="I32" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="L32" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="M32" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="N32" s="184" t="s">
+      <c r="M32" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="O32" s="183"/>
+      <c r="N32" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O32" s="175"/>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="182"/>
-      <c r="B33" s="188"/>
+      <c r="A33" s="174"/>
+      <c r="B33" s="180"/>
       <c r="C33" s="40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="184" t="s">
-        <v>224</v>
-      </c>
-      <c r="H33" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="I33" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J33" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K33" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L33" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M33" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N33" s="184" t="s">
+      <c r="G33" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="O33" s="183"/>
+      <c r="H33" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I33" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L33" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N33" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33" s="175"/>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="182"/>
-      <c r="B34" s="188"/>
+      <c r="A34" s="174"/>
+      <c r="B34" s="180"/>
       <c r="C34" s="40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="184" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="I34" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J34" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K34" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L34" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M34" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N34" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O34" s="183"/>
+      <c r="G34" s="176" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I34" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K34" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M34" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O34" s="175"/>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="182"/>
-      <c r="B35" s="188"/>
+      <c r="A35" s="174"/>
+      <c r="B35" s="180"/>
       <c r="C35" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="H35" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="I35" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J35" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K35" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L35" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M35" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N35" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="O35" s="183"/>
+      <c r="G35" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K35" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L35" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M35" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N35" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="O35" s="175"/>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="182"/>
-      <c r="B36" s="188"/>
+      <c r="A36" s="174"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H36" s="184" t="s">
+      <c r="G36" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="I36" s="184" t="s">
+      <c r="H36" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L36" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M36" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N36" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J36" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K36" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L36" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M36" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N36" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="O36" s="183"/>
+      <c r="O36" s="175"/>
     </row>
     <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="182"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="174"/>
+      <c r="B37" s="180"/>
       <c r="C37" s="40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
-      <c r="G37" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="H37" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="I37" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J37" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K37" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L37" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="M37" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="N37" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O37" s="183"/>
+      <c r="G37" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K37" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="M37" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="N37" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O37" s="175"/>
     </row>
     <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="182"/>
-      <c r="B38" s="188"/>
+      <c r="A38" s="174"/>
+      <c r="B38" s="180"/>
       <c r="C38" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="184" t="s">
+      <c r="G38" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="I38" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K38" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="H38" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="I38" s="184" t="s">
+      <c r="M38" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="J38" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K38" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L38" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="M38" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="N38" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O38" s="183"/>
+      <c r="N38" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O38" s="175"/>
     </row>
     <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="182"/>
-      <c r="B39" s="188"/>
+      <c r="A39" s="174"/>
+      <c r="B39" s="180"/>
       <c r="C39" s="40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="H39" s="184" t="s">
-        <v>227</v>
-      </c>
-      <c r="I39" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="J39" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="K39" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="L39" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="M39" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="N39" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="O39" s="183"/>
+      <c r="G39" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="176" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="K39" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L39" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M39" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="N39" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="O39" s="175"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="182"/>
+      <c r="A40" s="174"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
@@ -7884,24 +7849,24 @@
       <c r="L40" s="61"/>
       <c r="M40" s="61"/>
       <c r="N40" s="61"/>
-      <c r="O40" s="183"/>
+      <c r="O40" s="175"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="189"/>
-      <c r="B41" s="190"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="190"/>
-      <c r="O41" s="191"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="183"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8959,7 +8924,7 @@
       <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
@@ -8981,8 +8946,8 @@
       <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="192" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="184" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="55"/>
@@ -8999,11 +8964,11 @@
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="192" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="192"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="38" t="s">
@@ -9120,8 +9085,8 @@
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="68"/>
       <c r="B11" s="69"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
@@ -9130,8 +9095,8 @@
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="68"/>
       <c r="B12" s="74"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="72"/>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
@@ -9140,8 +9105,8 @@
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="68"/>
       <c r="B13" s="74"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="77"/>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
@@ -9150,8 +9115,8 @@
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="68"/>
       <c r="B14" s="74"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
@@ -9160,8 +9125,8 @@
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="68"/>
       <c r="B15" s="74"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
@@ -9170,8 +9135,8 @@
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="68"/>
       <c r="B16" s="74"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
@@ -9180,8 +9145,8 @@
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="68"/>
       <c r="B17" s="74"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -9198,7 +9163,7 @@
       <c r="H18" s="78"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -9208,7 +9173,7 @@
       <c r="H19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="74"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -9218,7 +9183,7 @@
       <c r="H20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="74"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -9228,7 +9193,7 @@
       <c r="H21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="74"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -9238,7 +9203,7 @@
       <c r="H22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="74"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -9248,7 +9213,7 @@
       <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="74"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -9258,7 +9223,7 @@
       <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="74"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -9268,7 +9233,7 @@
       <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -9278,7 +9243,7 @@
       <c r="H26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="74"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -9288,7 +9253,7 @@
       <c r="H27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="74"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -9298,7 +9263,7 @@
       <c r="H28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="74"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -9308,290 +9273,290 @@
       <c r="H29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B32" s="64"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="94" t="s">
+      <c r="B33" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="95" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="68"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
       <c r="G34" s="72"/>
       <c r="H34" s="73"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
       <c r="G35" s="81"/>
-      <c r="H35" s="100"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
       <c r="G36" s="81"/>
-      <c r="H36" s="100"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="100"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+    </row>
+    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="94" t="s">
-        <v>119</v>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="95" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="102"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="105"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="106"/>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="97"/>
-      <c r="B43" s="106"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="81"/>
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
-      <c r="H43" s="100"/>
+      <c r="H43" s="101"/>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="109"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="110"/>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="109"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="110"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="110"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
+      <c r="B49" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
       <c r="F49" s="66" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="114"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="127"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="128"/>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="109"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="110"/>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="109"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="110"/>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="109"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="110"/>
     </row>
     <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="110"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10612,7 +10577,7 @@
   </sheetPr>
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -13790,10 +13755,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14067,40 +14032,44 @@
       <c r="H14" s="78"/>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="C15" s="75" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>90</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="75"/>
       <c r="G15" s="77"/>
       <c r="H15" s="78"/>
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68"/>
+      <c r="A16" s="68" t="n">
+        <v>6</v>
+      </c>
       <c r="B16" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="79"/>
       <c r="D16" s="79"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="75" t="s">
         <v>93</v>
       </c>
+      <c r="F16" s="75"/>
       <c r="G16" s="77"/>
       <c r="H16" s="78"/>
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>94</v>
@@ -14110,7 +14079,7 @@
       </c>
       <c r="D17" s="75"/>
       <c r="E17" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77"/>
@@ -14118,17 +14087,17 @@
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="75" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F18" s="75"/>
       <c r="G18" s="77"/>
@@ -14136,78 +14105,86 @@
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="68" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="75" t="s">
         <v>99</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>100</v>
       </c>
       <c r="D19" s="75"/>
       <c r="E19" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="75"/>
       <c r="G19" s="77"/>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="68" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="75" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80" t="n">
-        <v>9</v>
-      </c>
-      <c r="B20" s="74" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="F20" s="75"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="77" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="68" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77" t="s">
+      <c r="C21" s="81" t="s">
         <v>106</v>
-      </c>
-      <c r="H20" s="78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80" t="n">
-        <v>10</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>109</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="68" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="80"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="81"/>
+      <c r="C22" s="81" t="s">
+        <v>111</v>
+      </c>
       <c r="D22" s="81"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
+      <c r="E22" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>113</v>
+      </c>
       <c r="G22" s="77"/>
       <c r="H22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="74"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -14217,7 +14194,7 @@
       <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="74"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -14227,7 +14204,7 @@
       <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="74"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -14237,7 +14214,7 @@
       <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -14247,7 +14224,7 @@
       <c r="H26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="74"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -14257,7 +14234,7 @@
       <c r="H27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="74"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -14267,7 +14244,7 @@
       <c r="H28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="74"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -14277,7 +14254,7 @@
       <c r="H29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="80"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="74"/>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
@@ -14288,29 +14265,27 @@
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="82"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="85"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="64"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="88"/>
       <c r="D33" s="88"/>
       <c r="E33" s="88"/>
@@ -14319,98 +14294,98 @@
       <c r="H33" s="88"/>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+    </row>
+    <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91" t="s">
+      <c r="B35" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="93"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" s="94" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="73"/>
-    </row>
-    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="100"/>
+      <c r="H36" s="73"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="100"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
       <c r="G38" s="81"/>
-      <c r="H38" s="100"/>
+      <c r="H38" s="101"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="82"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="101"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86"/>
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="64"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="87"/>
       <c r="C41" s="88"/>
       <c r="D41" s="88"/>
       <c r="E41" s="88"/>
@@ -14419,90 +14394,90 @@
       <c r="H41" s="88"/>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+    </row>
+    <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="102"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="105"/>
+      <c r="B43" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="91"/>
+      <c r="H43" s="95" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="97"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="100"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="106"/>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="109"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="101"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="107"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="109"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="110"/>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="110"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="113"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="110"/>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="114"/>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="64"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="87"/>
       <c r="C49" s="88"/>
       <c r="D49" s="88"/>
       <c r="E49" s="88"/>
@@ -14511,106 +14486,117 @@
       <c r="H49" s="88"/>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+    </row>
+    <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="114" t="n">
+      <c r="B51" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="66"/>
+      <c r="H51" s="67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="115" t="n">
         <v>1</v>
       </c>
-      <c r="B51" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="96" t="s">
+      <c r="B52" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107" t="n">
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="B52" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="99" t="s">
+      <c r="B53" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107" t="n">
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="108" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="108" t="s">
+      <c r="B54" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" s="100"/>
+      <c r="H54" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" s="99"/>
-      <c r="H53" s="109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="107"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="109"/>
     </row>
     <row r="55" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="110"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="113"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="110"/>
+    </row>
+    <row r="56" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="111"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="114"/>
+    </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -15556,8 +15542,9 @@
     <row r="999" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1001" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="64">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -15570,6 +15557,7 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -15585,9 +15573,8 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="B37:C37"/>
@@ -15596,8 +15583,8 @@
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="C44:E44"/>
@@ -15608,8 +15595,8 @@
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="C52:E52"/>
@@ -15620,6 +15607,8 @@
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1.02361111111111" right="0.236111111111111" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15671,7 +15660,7 @@
       <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
@@ -15693,7 +15682,7 @@
       <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="54" t="s">
         <v>64</v>
       </c>
@@ -15711,7 +15700,7 @@
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
@@ -15787,7 +15776,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -15856,14 +15845,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>82</v>
@@ -15876,14 +15865,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -15896,14 +15885,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>82</v>
@@ -15916,14 +15905,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>82</v>
@@ -15936,16 +15925,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="117"/>
+        <v>147</v>
+      </c>
+      <c r="F16" s="118"/>
       <c r="G16" s="77"/>
       <c r="H16" s="78"/>
     </row>
@@ -15954,16 +15943,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D17" s="76"/>
       <c r="E17" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="117"/>
+        <v>147</v>
+      </c>
+      <c r="F17" s="118"/>
       <c r="G17" s="77"/>
       <c r="H17" s="78"/>
     </row>
@@ -15972,21 +15961,21 @@
         <v>8</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
-      <c r="H18" s="118"/>
+      <c r="H18" s="119"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -15996,7 +15985,7 @@
       <c r="H19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="74"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -16006,7 +15995,7 @@
       <c r="H20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="74"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -16016,7 +16005,7 @@
       <c r="H21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="74"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -16026,7 +16015,7 @@
       <c r="H22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="74"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -16036,7 +16025,7 @@
       <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="74"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -16046,7 +16035,7 @@
       <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="74"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -16056,7 +16045,7 @@
       <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -16066,7 +16055,7 @@
       <c r="H26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="74"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -16076,7 +16065,7 @@
       <c r="H27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="74"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -16086,7 +16075,7 @@
       <c r="H28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="74"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -16096,63 +16085,63 @@
       <c r="H29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B32" s="64"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="94" t="s">
+      <c r="B33" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="95" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="119" t="n">
+      <c r="A34" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -16166,217 +16155,217 @@
       <c r="H34" s="73"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="120" t="n">
+      <c r="A35" s="121" t="n">
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
       <c r="G35" s="81"/>
-      <c r="H35" s="100"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="120" t="n">
+      <c r="A36" s="121" t="n">
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
       <c r="G36" s="81"/>
-      <c r="H36" s="100"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="100"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+    </row>
+    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="94" t="s">
-        <v>119</v>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="95" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="119" t="n">
+      <c r="A42" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G42" s="71"/>
-      <c r="H42" s="121" t="s">
+      <c r="H42" s="122" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="120" t="n">
+      <c r="A43" s="121" t="n">
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G43" s="76"/>
-      <c r="H43" s="122" t="s">
+      <c r="H43" s="123" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="109"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="110"/>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="109"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="110"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="110"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="123"/>
+      <c r="B49" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="124"/>
       <c r="H49" s="67" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="119" t="n">
+      <c r="A50" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>76</v>
@@ -16384,19 +16373,19 @@
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="71" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="120" t="n">
+      <c r="A51" s="121" t="n">
         <v>2</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C51" s="76" t="s">
         <v>76</v>
@@ -16404,44 +16393,44 @@
       <c r="D51" s="76"/>
       <c r="E51" s="76"/>
       <c r="F51" s="76" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G51" s="76"/>
       <c r="H51" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="109"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="110"/>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="24" t="s">
         <v>6</v>
       </c>
       <c r="G53" s="24"/>
-      <c r="H53" s="109"/>
+      <c r="H53" s="110"/>
     </row>
     <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="110"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17504,7 +17493,7 @@
       <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
@@ -17526,7 +17515,7 @@
       <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="54" t="s">
         <v>64</v>
       </c>
@@ -17544,7 +17533,7 @@
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
@@ -17620,7 +17609,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -17668,7 +17657,7 @@
       <c r="A11" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="125" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="71" t="s">
@@ -17685,68 +17674,68 @@
       <c r="H11" s="73"/>
     </row>
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="97" t="n">
+      <c r="A12" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="106" t="s">
-        <v>160</v>
+      <c r="B12" s="107" t="s">
+        <v>163</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>82</v>
       </c>
       <c r="G12" s="81"/>
-      <c r="H12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="97" t="n">
+      <c r="A13" s="98" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="106" t="s">
-        <v>161</v>
+      <c r="B13" s="107" t="s">
+        <v>164</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
-      <c r="H13" s="100"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="97" t="n">
+      <c r="A14" s="98" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="106" t="s">
-        <v>162</v>
+      <c r="B14" s="107" t="s">
+        <v>165</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F14" s="81"/>
       <c r="G14" s="81"/>
-      <c r="H14" s="100"/>
+      <c r="H14" s="101"/>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="97" t="n">
+      <c r="A15" s="98" t="n">
         <v>5</v>
       </c>
       <c r="B15" s="74"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
@@ -17757,8 +17746,8 @@
         <v>6</v>
       </c>
       <c r="B16" s="74"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
@@ -17769,8 +17758,8 @@
         <v>7</v>
       </c>
       <c r="B17" s="74"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -17789,7 +17778,7 @@
       <c r="H18" s="78"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -17799,7 +17788,7 @@
       <c r="H19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="74"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -17809,7 +17798,7 @@
       <c r="H20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="74"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -17819,7 +17808,7 @@
       <c r="H21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="74"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -17829,7 +17818,7 @@
       <c r="H22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="74"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -17839,7 +17828,7 @@
       <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="74"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -17849,7 +17838,7 @@
       <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="74"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -17859,7 +17848,7 @@
       <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -17869,7 +17858,7 @@
       <c r="H26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="74"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -17879,7 +17868,7 @@
       <c r="H27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="74"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -17889,7 +17878,7 @@
       <c r="H28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="74"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -17899,63 +17888,63 @@
       <c r="H29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B32" s="64"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="94" t="s">
+      <c r="B33" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="95" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="119" t="n">
+      <c r="A34" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -17969,113 +17958,113 @@
       <c r="H34" s="73"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="120" t="n">
+      <c r="A35" s="121" t="n">
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
       <c r="G35" s="81"/>
-      <c r="H35" s="100"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="120" t="n">
+      <c r="A36" s="121" t="n">
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
       <c r="G36" s="81"/>
-      <c r="H36" s="100"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="100"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+    </row>
+    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="94" t="s">
-        <v>119</v>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="95" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="119" t="n">
+      <c r="A42" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="71" t="s">
@@ -18083,19 +18072,19 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="120" t="n">
+      <c r="A43" s="121" t="n">
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="76" t="s">
@@ -18103,126 +18092,126 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="109"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="110"/>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="109"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="110"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="110"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
+      <c r="B49" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
       <c r="F49" s="66" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="67" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="114"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="127"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="128"/>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="109"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="110"/>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="109"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="110"/>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="109"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="110"/>
     </row>
     <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="110"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -19248,10 +19237,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19282,7 +19271,7 @@
       <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
@@ -19304,7 +19293,7 @@
       <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="54" t="s">
         <v>64</v>
       </c>
@@ -19322,7 +19311,7 @@
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
@@ -19398,7 +19387,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -19449,11 +19438,11 @@
       <c r="B11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="129" t="s">
+      <c r="D11" s="129"/>
+      <c r="E11" s="130" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="71" t="s">
@@ -19467,16 +19456,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="125" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="117"/>
+        <v>163</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="126"/>
+      <c r="E12" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="118"/>
       <c r="G12" s="77"/>
       <c r="H12" s="78"/>
     </row>
@@ -19485,14 +19474,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="106" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="126"/>
+      <c r="E13" s="107" t="s">
+        <v>174</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -19500,25 +19489,17 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78"/>
     </row>
-    <row r="14" s="137" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="130" t="n">
+    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="131" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="132" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="134" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="136"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="68" t="n">
@@ -19557,9 +19538,7 @@
       <c r="H17" s="78"/>
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68" t="n">
-        <v>8</v>
-      </c>
+      <c r="A18" s="82"/>
       <c r="B18" s="74"/>
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
@@ -19569,7 +19548,7 @@
       <c r="H18" s="78"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -19579,7 +19558,7 @@
       <c r="H19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="74"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -19589,7 +19568,7 @@
       <c r="H20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="74"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -19599,7 +19578,7 @@
       <c r="H21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="74"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -19609,7 +19588,7 @@
       <c r="H22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="74"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -19619,7 +19598,7 @@
       <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="74"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -19629,7 +19608,7 @@
       <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="74"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -19639,7 +19618,7 @@
       <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -19649,7 +19628,7 @@
       <c r="H26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="74"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -19659,7 +19638,7 @@
       <c r="H27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="74"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -19669,335 +19648,326 @@
       <c r="H28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="A32" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="73"/>
+    </row>
+    <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="98" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="101"/>
+    </row>
+    <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="101"/>
+    </row>
+    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="101"/>
+    </row>
+    <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="83"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
+    </row>
+    <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+    </row>
+    <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+    </row>
+    <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="94" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="68" t="n">
+      <c r="B40" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="91"/>
+      <c r="H40" s="95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="131" t="n">
         <v>1</v>
       </c>
-      <c r="B34" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71" t="s">
+      <c r="B41" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" s="134"/>
+      <c r="H41" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" s="73"/>
-    </row>
-    <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="97" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="98"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="101"/>
+    </row>
+    <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="108"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="110"/>
+    </row>
+    <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="110"/>
+    </row>
+    <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="111"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="114"/>
+    </row>
+    <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+    </row>
+    <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+    </row>
+    <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="124"/>
+      <c r="H48" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="100"/>
-    </row>
-    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="100"/>
-    </row>
-    <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="100"/>
-    </row>
-    <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
-    </row>
-    <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-    </row>
-    <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="138" t="n">
+    </row>
+    <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="135" t="n">
         <v>1</v>
       </c>
-      <c r="B42" s="139" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="140" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="141" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42" s="141"/>
-      <c r="H42" s="139" t="s">
+      <c r="B49" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="136" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="97"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="100"/>
-    </row>
-    <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="109"/>
-    </row>
-    <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="109"/>
-    </row>
-    <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="110"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
-    </row>
-    <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-    </row>
-    <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-    </row>
-    <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="123"/>
-      <c r="H49" s="67" t="s">
-        <v>122</v>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="137"/>
+      <c r="H49" s="136" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" s="143" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="143" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="144" t="s">
-        <v>156</v>
-      </c>
-      <c r="G50" s="144"/>
-      <c r="H50" s="143" t="s">
-        <v>176</v>
-      </c>
+      <c r="A50" s="108"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="110"/>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="109"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="110"/>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="109"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="110"/>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="109"/>
-    </row>
-    <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="110"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113"/>
-    </row>
+      <c r="A53" s="111"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="114"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -20943,9 +20913,9 @@
     <row r="997" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="998" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="61">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -20972,8 +20942,9 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
@@ -20982,8 +20953,8 @@
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C42:E42"/>
@@ -20994,8 +20965,8 @@
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="C50:E50"/>
@@ -21006,8 +20977,6 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1.02361111111111" right="0.236111111111111" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
@@ -21056,10 +21025,10 @@
       <c r="H1" s="52"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
@@ -21078,10 +21047,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="54" t="s">
         <v>64</v>
       </c>
@@ -21096,10 +21065,10 @@
       <c r="H3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
@@ -21142,24 +21111,24 @@
       <c r="Z5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="146"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="146"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="63" t="s">
         <v>51</v>
       </c>
@@ -21170,12 +21139,12 @@
       <c r="H7" s="63"/>
     </row>
     <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="146"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -21223,7 +21192,7 @@
       <c r="A11" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="125" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="71" t="s">
@@ -21240,18 +21209,18 @@
       <c r="H11" s="73"/>
     </row>
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="97" t="n">
+      <c r="A12" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="106" t="s">
-        <v>178</v>
+      <c r="B12" s="107" t="s">
+        <v>179</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>82</v>
@@ -21260,18 +21229,18 @@
       <c r="H12" s="78"/>
     </row>
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="97" t="n">
+      <c r="A13" s="98" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="106" t="s">
-        <v>161</v>
+      <c r="B13" s="107" t="s">
+        <v>164</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -21280,18 +21249,18 @@
       <c r="H13" s="78"/>
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="97" t="n">
+      <c r="A14" s="98" t="n">
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>82</v>
@@ -21304,14 +21273,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>82</v>
@@ -21324,20 +21293,20 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="126"/>
+      <c r="C16" s="126" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="127"/>
       <c r="E16" s="77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H16" s="78"/>
     </row>
@@ -21346,8 +21315,8 @@
         <v>7</v>
       </c>
       <c r="B17" s="74"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -21366,7 +21335,7 @@
       <c r="H18" s="78"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -21376,7 +21345,7 @@
       <c r="H19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="74"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -21386,7 +21355,7 @@
       <c r="H20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="74"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -21396,7 +21365,7 @@
       <c r="H21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="74"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -21406,7 +21375,7 @@
       <c r="H22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="74"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -21416,7 +21385,7 @@
       <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="74"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -21426,7 +21395,7 @@
       <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="74"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -21436,7 +21405,7 @@
       <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -21446,7 +21415,7 @@
       <c r="H26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="74"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -21456,7 +21425,7 @@
       <c r="H27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="74"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -21466,7 +21435,7 @@
       <c r="H28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="74"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -21476,63 +21445,63 @@
       <c r="H29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B32" s="64"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="148" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="94" t="s">
+      <c r="B33" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="124"/>
+      <c r="D33" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="142"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="95" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="119" t="n">
+      <c r="A34" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -21546,260 +21515,260 @@
       <c r="H34" s="73"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="120" t="n">
+      <c r="A35" s="121" t="n">
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
       <c r="G35" s="81"/>
-      <c r="H35" s="100"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="151" t="n">
+      <c r="A36" s="144" t="n">
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
       <c r="G36" s="81"/>
-      <c r="H36" s="100"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="100"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+    </row>
+    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="152" t="s">
-        <v>119</v>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="145" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="153" t="n">
+      <c r="A42" s="146" t="n">
         <v>1</v>
       </c>
-      <c r="B42" s="154" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="154" t="s">
+      <c r="B42" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="154"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="154"/>
-      <c r="H42" s="155" t="s">
+      <c r="C42" s="147" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="147"/>
+      <c r="H42" s="148" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="120" t="n">
+      <c r="A43" s="121" t="n">
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G43" s="76"/>
-      <c r="H43" s="156" t="s">
+      <c r="H43" s="149" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="109"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="110"/>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="109"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="110"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="110"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="123"/>
+      <c r="B49" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="124"/>
       <c r="H49" s="67" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="119"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="71"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="159"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="152"/>
       <c r="F50" s="71"/>
       <c r="G50" s="71"/>
-      <c r="H50" s="121"/>
+      <c r="H50" s="122"/>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="109"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="110"/>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="109"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="110"/>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="109"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="110"/>
     </row>
     <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="110"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -22858,7 +22827,7 @@
       <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
@@ -22880,7 +22849,7 @@
       <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="54" t="s">
         <v>64</v>
       </c>
@@ -22898,7 +22867,7 @@
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
@@ -22945,14 +22914,14 @@
         <v>33</v>
       </c>
       <c r="B6" s="62"/>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="53" t="s">
@@ -22960,7 +22929,7 @@
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
@@ -22974,7 +22943,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -23022,7 +22991,7 @@
       <c r="A11" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="154" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="71" t="s">
@@ -23043,10 +23012,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -23061,8 +23030,8 @@
         <v>3</v>
       </c>
       <c r="B13" s="74"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="77"/>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
@@ -23073,8 +23042,8 @@
         <v>4</v>
       </c>
       <c r="B14" s="74"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
@@ -23085,8 +23054,8 @@
         <v>5</v>
       </c>
       <c r="B15" s="74"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
@@ -23097,8 +23066,8 @@
         <v>6</v>
       </c>
       <c r="B16" s="74"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
@@ -23109,8 +23078,8 @@
         <v>7</v>
       </c>
       <c r="B17" s="74"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -23129,7 +23098,7 @@
       <c r="H18" s="78"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -23139,7 +23108,7 @@
       <c r="H19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="74"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -23149,7 +23118,7 @@
       <c r="H20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="74"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -23159,7 +23128,7 @@
       <c r="H21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="74"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -23169,7 +23138,7 @@
       <c r="H22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="74"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -23179,7 +23148,7 @@
       <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="74"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -23189,7 +23158,7 @@
       <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="74"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -23199,7 +23168,7 @@
       <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -23209,7 +23178,7 @@
       <c r="H26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="74"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -23219,7 +23188,7 @@
       <c r="H27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="74"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -23229,7 +23198,7 @@
       <c r="H28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="74"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -23239,253 +23208,253 @@
       <c r="H29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B32" s="64"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="152" t="s">
+      <c r="B33" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="145" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="142" t="n">
+      <c r="A34" s="135" t="n">
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" s="71"/>
-      <c r="D34" s="162" t="s">
+      <c r="D34" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="163" t="s">
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="159"/>
+      <c r="H34" s="152"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
       <c r="G35" s="81"/>
-      <c r="H35" s="100"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
       <c r="G36" s="81"/>
-      <c r="H36" s="100"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="100"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+    </row>
+    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="94" t="s">
-        <v>119</v>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="95" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="102"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="105"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="106"/>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="97"/>
-      <c r="B43" s="106"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="81"/>
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
-      <c r="H43" s="100"/>
+      <c r="H43" s="101"/>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="109"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="110"/>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="109"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="110"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="110"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="123"/>
+      <c r="B49" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="124"/>
       <c r="H49" s="67" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="114"/>
+      <c r="A50" s="115"/>
       <c r="B50" s="70" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C50" s="70" t="s">
         <v>76</v>
@@ -23493,52 +23462,52 @@
       <c r="D50" s="70"/>
       <c r="E50" s="70"/>
       <c r="F50" s="70" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G50" s="70"/>
-      <c r="H50" s="121" t="s">
-        <v>143</v>
+      <c r="H50" s="122" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="109"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="110"/>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="109"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="110"/>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="109"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="110"/>
     </row>
     <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="110"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -24596,7 +24565,7 @@
       <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
@@ -24618,7 +24587,7 @@
       <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="54" t="s">
         <v>64</v>
       </c>
@@ -24636,7 +24605,7 @@
       <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
@@ -24712,7 +24681,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -24760,7 +24729,7 @@
       <c r="A11" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="125" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="71" t="s">
@@ -24777,18 +24746,18 @@
       <c r="H11" s="73"/>
     </row>
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="97" t="n">
+      <c r="A12" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="106" t="s">
-        <v>192</v>
+      <c r="B12" s="107" t="s">
+        <v>193</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>82</v>
@@ -24797,24 +24766,24 @@
       <c r="H12" s="78"/>
     </row>
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="97" t="n">
+      <c r="A13" s="98" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="77"/>
       <c r="H13" s="78"/>
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="97" t="n">
+      <c r="A14" s="98" t="n">
         <v>4</v>
       </c>
       <c r="B14" s="74"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
@@ -24825,8 +24794,8 @@
         <v>5</v>
       </c>
       <c r="B15" s="74"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
@@ -24837,8 +24806,8 @@
         <v>6</v>
       </c>
       <c r="B16" s="74"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
@@ -24849,8 +24818,8 @@
         <v>7</v>
       </c>
       <c r="B17" s="74"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -24869,7 +24838,7 @@
       <c r="H18" s="78"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -24879,7 +24848,7 @@
       <c r="H19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="74"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -24889,7 +24858,7 @@
       <c r="H20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="74"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -24899,7 +24868,7 @@
       <c r="H21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="74"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -24909,7 +24878,7 @@
       <c r="H22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="74"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -24919,7 +24888,7 @@
       <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="74"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -24929,7 +24898,7 @@
       <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="74"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -24939,7 +24908,7 @@
       <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="74"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -24949,7 +24918,7 @@
       <c r="H26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="74"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -24959,7 +24928,7 @@
       <c r="H27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="74"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -24969,7 +24938,7 @@
       <c r="H28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="74"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -24979,63 +24948,63 @@
       <c r="H29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B32" s="64"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="94" t="s">
+      <c r="B33" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="95" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="119" t="n">
+      <c r="A34" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71" t="s">
@@ -25049,238 +25018,238 @@
       <c r="H34" s="73"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
       <c r="G35" s="81"/>
-      <c r="H35" s="100"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
       <c r="G36" s="81"/>
-      <c r="H36" s="100"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="100"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="82"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+    </row>
+    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="94" t="s">
-        <v>119</v>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="95" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="102"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="105"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="106"/>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="97"/>
-      <c r="B43" s="106"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="81"/>
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
-      <c r="H43" s="100"/>
+      <c r="H43" s="101"/>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="109"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="110"/>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="109"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="110"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="110"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="64" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="123"/>
+      <c r="B49" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="124"/>
       <c r="H49" s="67" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="119" t="n">
+      <c r="A50" s="120" t="n">
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="158"/>
-      <c r="E50" s="159"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="152"/>
       <c r="F50" s="71" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G50" s="71"/>
-      <c r="H50" s="121" t="s">
-        <v>146</v>
+      <c r="H50" s="122" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="109"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="110"/>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="109"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="110"/>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="109"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="110"/>
     </row>
     <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="110"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/document/DB/データベース設計書.xlsx
+++ b/document/DB/データベース設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="256">
   <si>
     <t xml:space="preserve">作成日</t>
   </si>
@@ -744,10 +744,25 @@
     <t xml:space="preserve">brand_id</t>
   </si>
   <si>
-    <t xml:space="preserve">画像</t>
+    <t xml:space="preserve">画像のディレクトリ</t>
   </si>
   <si>
-    <t xml:space="preserve">image_pass</t>
+    <t xml:space="preserve">image_dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セールフラグ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false:未セール/true:セール中</t>
   </si>
   <si>
     <t xml:space="preserve">goods_FK</t>
@@ -844,12 +859,6 @@
   </si>
   <si>
     <t xml:space="preserve">is_hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">buy_history_details_FK_1</t>
@@ -1227,7 +1236,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,12 +1247,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF93CDDD"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2350,7 +2353,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2366,7 +2369,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2374,7 +2377,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2454,7 +2457,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -2521,9 +2524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1997280</xdr:colOff>
+      <xdr:colOff>1996560</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2537,7 +2540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53640" y="6216840"/>
-          <a:ext cx="9345600" cy="6453720"/>
+          <a:ext cx="9344880" cy="6453000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4929,7 +4932,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -4998,14 +5001,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>82</v>
@@ -5018,14 +5021,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C13" s="157" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D13" s="157"/>
       <c r="E13" s="76" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -5038,14 +5041,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C14" s="157" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D14" s="157"/>
       <c r="E14" s="76" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>82</v>
@@ -5058,14 +5061,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C15" s="157" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D15" s="157"/>
       <c r="E15" s="76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="77"/>
@@ -5076,14 +5079,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C16" s="157" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D16" s="157"/>
       <c r="E16" s="76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>82</v>
@@ -5096,14 +5099,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C17" s="157" t="s">
         <v>128</v>
       </c>
       <c r="D17" s="157"/>
       <c r="E17" s="76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -5388,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C42" s="105" t="s">
         <v>128</v>
@@ -5396,7 +5399,7 @@
       <c r="D42" s="105"/>
       <c r="E42" s="105"/>
       <c r="F42" s="105" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G42" s="105"/>
       <c r="H42" s="106" t="s">
@@ -6580,7 +6583,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="158" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -6620,7 +6623,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="164" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
@@ -6631,7 +6634,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="167" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C3" s="167"/>
       <c r="D3" s="167"/>
@@ -6656,7 +6659,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="167" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C4" s="167"/>
       <c r="D4" s="167"/>
@@ -6708,10 +6711,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="171" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B6" s="167" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C6" s="167"/>
       <c r="D6" s="167"/>
@@ -6732,7 +6735,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="167" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C7" s="167"/>
       <c r="D7" s="167"/>
@@ -6773,7 +6776,7 @@
       <c r="E9" s="61"/>
       <c r="F9" s="175"/>
       <c r="G9" s="176" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H9" s="176"/>
       <c r="I9" s="176"/>
@@ -6820,37 +6823,37 @@
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="174"/>
       <c r="B11" s="180" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H11" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I11" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J11" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K11" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L11" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M11" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N11" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O11" s="175"/>
     </row>
@@ -6858,34 +6861,34 @@
       <c r="A12" s="174"/>
       <c r="B12" s="180"/>
       <c r="C12" s="40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H12" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I12" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J12" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K12" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L12" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M12" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N12" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O12" s="175"/>
     </row>
@@ -6893,34 +6896,34 @@
       <c r="A13" s="174"/>
       <c r="B13" s="180"/>
       <c r="C13" s="40" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H13" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I13" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J13" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K13" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L13" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M13" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N13" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O13" s="175"/>
     </row>
@@ -6928,34 +6931,34 @@
       <c r="A14" s="174"/>
       <c r="B14" s="180"/>
       <c r="C14" s="40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="176" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H14" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I14" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J14" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K14" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L14" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M14" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N14" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O14" s="175"/>
     </row>
@@ -6963,34 +6966,34 @@
       <c r="A15" s="174"/>
       <c r="B15" s="180"/>
       <c r="C15" s="40" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="176" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H15" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I15" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J15" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K15" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L15" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M15" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N15" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O15" s="175"/>
     </row>
@@ -6998,34 +7001,34 @@
       <c r="A16" s="174"/>
       <c r="B16" s="180"/>
       <c r="C16" s="40" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="176" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H16" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I16" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J16" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K16" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L16" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M16" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N16" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O16" s="175"/>
     </row>
@@ -7033,34 +7036,34 @@
       <c r="A17" s="174"/>
       <c r="B17" s="180"/>
       <c r="C17" s="40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H17" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I17" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J17" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K17" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L17" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M17" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N17" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O17" s="175"/>
     </row>
@@ -7068,34 +7071,34 @@
       <c r="A18" s="174"/>
       <c r="B18" s="180"/>
       <c r="C18" s="40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H18" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I18" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J18" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K18" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L18" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M18" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N18" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O18" s="175"/>
     </row>
@@ -7103,34 +7106,34 @@
       <c r="A19" s="174"/>
       <c r="B19" s="180"/>
       <c r="C19" s="40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H19" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I19" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J19" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K19" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L19" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M19" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N19" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O19" s="175"/>
     </row>
@@ -7138,34 +7141,34 @@
       <c r="A20" s="174"/>
       <c r="B20" s="180"/>
       <c r="C20" s="40" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H20" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I20" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J20" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K20" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L20" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M20" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N20" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O20" s="175"/>
     </row>
@@ -7173,34 +7176,34 @@
       <c r="A21" s="174"/>
       <c r="B21" s="180"/>
       <c r="C21" s="40" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H21" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I21" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J21" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K21" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L21" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M21" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N21" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O21" s="175"/>
     </row>
@@ -7208,34 +7211,34 @@
       <c r="A22" s="174"/>
       <c r="B22" s="180"/>
       <c r="C22" s="40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H22" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I22" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J22" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K22" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L22" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M22" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N22" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O22" s="175"/>
     </row>
@@ -7243,34 +7246,34 @@
       <c r="A23" s="174"/>
       <c r="B23" s="180"/>
       <c r="C23" s="40" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H23" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I23" s="176" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J23" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K23" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L23" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M23" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N23" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O23" s="175"/>
     </row>
@@ -7278,34 +7281,34 @@
       <c r="A24" s="174"/>
       <c r="B24" s="180"/>
       <c r="C24" s="40" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H24" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I24" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J24" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K24" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L24" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M24" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N24" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O24" s="175"/>
     </row>
@@ -7313,34 +7316,34 @@
       <c r="A25" s="174"/>
       <c r="B25" s="180"/>
       <c r="C25" s="40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H25" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I25" s="176" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J25" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K25" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L25" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M25" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N25" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O25" s="175"/>
     </row>
@@ -7348,34 +7351,34 @@
       <c r="A26" s="174"/>
       <c r="B26" s="180"/>
       <c r="C26" s="40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H26" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I26" s="176" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J26" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K26" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L26" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M26" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N26" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O26" s="175"/>
     </row>
@@ -7383,34 +7386,34 @@
       <c r="A27" s="174"/>
       <c r="B27" s="180"/>
       <c r="C27" s="40" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H27" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I27" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J27" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K27" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L27" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M27" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N27" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O27" s="175"/>
     </row>
@@ -7418,34 +7421,34 @@
       <c r="A28" s="174"/>
       <c r="B28" s="180"/>
       <c r="C28" s="40" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H28" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I28" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J28" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K28" s="176" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L28" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M28" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N28" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O28" s="175"/>
     </row>
@@ -7453,34 +7456,34 @@
       <c r="A29" s="174"/>
       <c r="B29" s="180"/>
       <c r="C29" s="40" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H29" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I29" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J29" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K29" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L29" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M29" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N29" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O29" s="175"/>
     </row>
@@ -7488,34 +7491,34 @@
       <c r="A30" s="174"/>
       <c r="B30" s="180"/>
       <c r="C30" s="40" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
       <c r="G30" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H30" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I30" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J30" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K30" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L30" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M30" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N30" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O30" s="175"/>
     </row>
@@ -7523,34 +7526,34 @@
       <c r="A31" s="174"/>
       <c r="B31" s="180"/>
       <c r="C31" s="40" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
       <c r="G31" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H31" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I31" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J31" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K31" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L31" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M31" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N31" s="179" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O31" s="175"/>
     </row>
@@ -7558,34 +7561,34 @@
       <c r="A32" s="174"/>
       <c r="B32" s="180"/>
       <c r="C32" s="40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H32" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I32" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J32" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K32" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L32" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M32" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N32" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O32" s="175"/>
     </row>
@@ -7593,34 +7596,34 @@
       <c r="A33" s="174"/>
       <c r="B33" s="180"/>
       <c r="C33" s="40" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="176" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H33" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I33" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J33" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K33" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L33" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M33" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N33" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O33" s="175"/>
     </row>
@@ -7628,34 +7631,34 @@
       <c r="A34" s="174"/>
       <c r="B34" s="180"/>
       <c r="C34" s="40" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
       <c r="G34" s="176" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H34" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I34" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J34" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K34" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L34" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M34" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N34" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O34" s="175"/>
     </row>
@@ -7663,34 +7666,34 @@
       <c r="A35" s="174"/>
       <c r="B35" s="180"/>
       <c r="C35" s="40" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
       <c r="G35" s="176" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H35" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I35" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J35" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K35" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L35" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M35" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N35" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O35" s="175"/>
     </row>
@@ -7698,34 +7701,34 @@
       <c r="A36" s="174"/>
       <c r="B36" s="180"/>
       <c r="C36" s="40" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
       <c r="G36" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H36" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I36" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J36" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K36" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L36" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M36" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N36" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O36" s="175"/>
     </row>
@@ -7733,34 +7736,34 @@
       <c r="A37" s="174"/>
       <c r="B37" s="180"/>
       <c r="C37" s="40" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
       <c r="G37" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H37" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I37" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J37" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K37" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L37" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M37" s="176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N37" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O37" s="175"/>
     </row>
@@ -7768,34 +7771,34 @@
       <c r="A38" s="174"/>
       <c r="B38" s="180"/>
       <c r="C38" s="40" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
       <c r="G38" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H38" s="176" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I38" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J38" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K38" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L38" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M38" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N38" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O38" s="175"/>
     </row>
@@ -7803,34 +7806,34 @@
       <c r="A39" s="174"/>
       <c r="B39" s="180"/>
       <c r="C39" s="40" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
       <c r="G39" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H39" s="176" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I39" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J39" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K39" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L39" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M39" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N39" s="176" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O39" s="175"/>
     </row>
@@ -15628,8 +15631,8 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15975,14 +15978,28 @@
       <c r="H18" s="119"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="82"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="81"/>
+      <c r="A19" s="68" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>153</v>
+      </c>
       <c r="D19" s="81"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
+      <c r="E19" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="82"/>
@@ -16159,7 +16176,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
@@ -16175,7 +16192,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
@@ -16253,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C42" s="71" t="s">
         <v>146</v>
@@ -16261,7 +16278,7 @@
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="122" t="s">
@@ -16273,7 +16290,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C43" s="76" t="s">
         <v>149</v>
@@ -16281,7 +16298,7 @@
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="123" t="s">
@@ -16365,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>76</v>
@@ -16373,11 +16390,11 @@
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="71" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16385,7 +16402,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C51" s="76" t="s">
         <v>76</v>
@@ -16397,7 +16414,7 @@
       </c>
       <c r="G51" s="76"/>
       <c r="H51" s="76" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17609,7 +17626,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -17678,7 +17695,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>128</v>
@@ -17698,10 +17715,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
@@ -17716,10 +17733,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
@@ -17962,7 +17979,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
@@ -17978,11 +17995,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -18064,7 +18081,7 @@
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="71" t="s">
@@ -18076,15 +18093,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="76" t="s">
@@ -19239,7 +19256,7 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -19387,7 +19404,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -19456,7 +19473,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C12" s="126" t="s">
         <v>128</v>
@@ -19474,14 +19491,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D13" s="126"/>
       <c r="E13" s="107" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -19722,7 +19739,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="76" t="s">
@@ -19818,7 +19835,7 @@
       <c r="D41" s="133"/>
       <c r="E41" s="133"/>
       <c r="F41" s="134" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G41" s="134"/>
       <c r="H41" s="132" t="s">
@@ -19912,7 +19929,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="136" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C49" s="136" t="s">
         <v>76</v>
@@ -19920,11 +19937,11 @@
       <c r="D49" s="136"/>
       <c r="E49" s="136"/>
       <c r="F49" s="137" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G49" s="137"/>
       <c r="H49" s="136" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21144,7 +21161,7 @@
       </c>
       <c r="B8" s="139"/>
       <c r="C8" s="63" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -21213,10 +21230,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -21233,10 +21250,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
@@ -21253,10 +21270,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
@@ -21273,10 +21290,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
@@ -21293,20 +21310,20 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D16" s="127"/>
       <c r="E16" s="77" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>113</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="H16" s="78"/>
     </row>
@@ -21519,11 +21536,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -21535,11 +21552,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -21613,10 +21630,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="147" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C42" s="147" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D42" s="147"/>
       <c r="E42" s="147"/>
@@ -21633,15 +21650,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="149" t="s">
@@ -22929,7 +22946,7 @@
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="63" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
@@ -22943,7 +22960,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -23012,10 +23029,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -23454,7 +23471,7 @@
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="115"/>
       <c r="B50" s="70" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C50" s="70" t="s">
         <v>76</v>
@@ -23462,7 +23479,7 @@
       <c r="D50" s="70"/>
       <c r="E50" s="70"/>
       <c r="F50" s="70" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G50" s="70"/>
       <c r="H50" s="122" t="s">
@@ -24681,7 +24698,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -24750,10 +24767,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -25196,7 +25213,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C50" s="156" t="s">
         <v>76</v>
@@ -25204,7 +25221,7 @@
       <c r="D50" s="151"/>
       <c r="E50" s="152"/>
       <c r="F50" s="71" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="122" t="s">

--- a/document/DB/データベース設計書.xlsx
+++ b/document/DB/データベース設計書.xlsx
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="259">
   <si>
     <t xml:space="preserve">作成日</t>
   </si>
@@ -763,6 +763,15 @@
   </si>
   <si>
     <t xml:space="preserve">false:未セール/true:セール中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">販売数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales_quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">goods_FK</t>
@@ -2524,9 +2533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1996560</xdr:colOff>
+      <xdr:colOff>1996200</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2540,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53640" y="6216840"/>
-          <a:ext cx="9344880" cy="6453000"/>
+          <a:ext cx="9344520" cy="6452640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4932,7 +4941,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -5001,14 +5010,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>82</v>
@@ -5021,14 +5030,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C13" s="157" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D13" s="157"/>
       <c r="E13" s="76" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -5041,14 +5050,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C14" s="157" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D14" s="157"/>
       <c r="E14" s="76" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>82</v>
@@ -5061,14 +5070,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C15" s="157" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D15" s="157"/>
       <c r="E15" s="76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="77"/>
@@ -5079,14 +5088,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C16" s="157" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D16" s="157"/>
       <c r="E16" s="76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>82</v>
@@ -5099,14 +5108,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C17" s="157" t="s">
         <v>128</v>
       </c>
       <c r="D17" s="157"/>
       <c r="E17" s="76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -5391,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C42" s="105" t="s">
         <v>128</v>
@@ -5399,7 +5408,7 @@
       <c r="D42" s="105"/>
       <c r="E42" s="105"/>
       <c r="F42" s="105" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G42" s="105"/>
       <c r="H42" s="106" t="s">
@@ -6583,7 +6592,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="158" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -6623,7 +6632,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="164" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
@@ -6634,7 +6643,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="167" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C3" s="167"/>
       <c r="D3" s="167"/>
@@ -6659,7 +6668,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="167" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C4" s="167"/>
       <c r="D4" s="167"/>
@@ -6711,10 +6720,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="171" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B6" s="167" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C6" s="167"/>
       <c r="D6" s="167"/>
@@ -6735,7 +6744,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="167" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C7" s="167"/>
       <c r="D7" s="167"/>
@@ -6776,7 +6785,7 @@
       <c r="E9" s="61"/>
       <c r="F9" s="175"/>
       <c r="G9" s="176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H9" s="176"/>
       <c r="I9" s="176"/>
@@ -6823,37 +6832,37 @@
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="174"/>
       <c r="B11" s="180" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H11" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I11" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J11" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K11" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L11" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M11" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N11" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O11" s="175"/>
     </row>
@@ -6861,34 +6870,34 @@
       <c r="A12" s="174"/>
       <c r="B12" s="180"/>
       <c r="C12" s="40" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H12" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I12" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J12" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K12" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L12" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M12" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N12" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O12" s="175"/>
     </row>
@@ -6896,34 +6905,34 @@
       <c r="A13" s="174"/>
       <c r="B13" s="180"/>
       <c r="C13" s="40" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H13" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I13" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J13" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K13" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L13" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M13" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N13" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O13" s="175"/>
     </row>
@@ -6931,34 +6940,34 @@
       <c r="A14" s="174"/>
       <c r="B14" s="180"/>
       <c r="C14" s="40" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="176" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H14" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I14" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J14" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K14" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L14" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M14" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N14" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O14" s="175"/>
     </row>
@@ -6966,34 +6975,34 @@
       <c r="A15" s="174"/>
       <c r="B15" s="180"/>
       <c r="C15" s="40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="176" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H15" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I15" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J15" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K15" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L15" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M15" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N15" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O15" s="175"/>
     </row>
@@ -7001,34 +7010,34 @@
       <c r="A16" s="174"/>
       <c r="B16" s="180"/>
       <c r="C16" s="40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="176" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H16" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I16" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J16" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K16" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L16" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M16" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N16" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O16" s="175"/>
     </row>
@@ -7036,34 +7045,34 @@
       <c r="A17" s="174"/>
       <c r="B17" s="180"/>
       <c r="C17" s="40" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H17" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I17" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J17" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K17" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L17" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M17" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N17" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O17" s="175"/>
     </row>
@@ -7071,34 +7080,34 @@
       <c r="A18" s="174"/>
       <c r="B18" s="180"/>
       <c r="C18" s="40" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H18" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I18" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J18" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K18" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L18" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M18" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N18" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O18" s="175"/>
     </row>
@@ -7106,34 +7115,34 @@
       <c r="A19" s="174"/>
       <c r="B19" s="180"/>
       <c r="C19" s="40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H19" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I19" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J19" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K19" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L19" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M19" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N19" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O19" s="175"/>
     </row>
@@ -7141,34 +7150,34 @@
       <c r="A20" s="174"/>
       <c r="B20" s="180"/>
       <c r="C20" s="40" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H20" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I20" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J20" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K20" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L20" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M20" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N20" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O20" s="175"/>
     </row>
@@ -7176,34 +7185,34 @@
       <c r="A21" s="174"/>
       <c r="B21" s="180"/>
       <c r="C21" s="40" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H21" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I21" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J21" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K21" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L21" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M21" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N21" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O21" s="175"/>
     </row>
@@ -7211,34 +7220,34 @@
       <c r="A22" s="174"/>
       <c r="B22" s="180"/>
       <c r="C22" s="40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H22" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I22" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J22" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K22" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L22" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M22" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N22" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O22" s="175"/>
     </row>
@@ -7246,34 +7255,34 @@
       <c r="A23" s="174"/>
       <c r="B23" s="180"/>
       <c r="C23" s="40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H23" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I23" s="176" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J23" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K23" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L23" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M23" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N23" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O23" s="175"/>
     </row>
@@ -7281,34 +7290,34 @@
       <c r="A24" s="174"/>
       <c r="B24" s="180"/>
       <c r="C24" s="40" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H24" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I24" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J24" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K24" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L24" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M24" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N24" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O24" s="175"/>
     </row>
@@ -7316,34 +7325,34 @@
       <c r="A25" s="174"/>
       <c r="B25" s="180"/>
       <c r="C25" s="40" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H25" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I25" s="176" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J25" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K25" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L25" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M25" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N25" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O25" s="175"/>
     </row>
@@ -7351,34 +7360,34 @@
       <c r="A26" s="174"/>
       <c r="B26" s="180"/>
       <c r="C26" s="40" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H26" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I26" s="176" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J26" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K26" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L26" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M26" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N26" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O26" s="175"/>
     </row>
@@ -7386,34 +7395,34 @@
       <c r="A27" s="174"/>
       <c r="B27" s="180"/>
       <c r="C27" s="40" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H27" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I27" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J27" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K27" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L27" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M27" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N27" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O27" s="175"/>
     </row>
@@ -7421,34 +7430,34 @@
       <c r="A28" s="174"/>
       <c r="B28" s="180"/>
       <c r="C28" s="40" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H28" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I28" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J28" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K28" s="176" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L28" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M28" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N28" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O28" s="175"/>
     </row>
@@ -7456,34 +7465,34 @@
       <c r="A29" s="174"/>
       <c r="B29" s="180"/>
       <c r="C29" s="40" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H29" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I29" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J29" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K29" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L29" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M29" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N29" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O29" s="175"/>
     </row>
@@ -7491,34 +7500,34 @@
       <c r="A30" s="174"/>
       <c r="B30" s="180"/>
       <c r="C30" s="40" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
       <c r="G30" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H30" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I30" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J30" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K30" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L30" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M30" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N30" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O30" s="175"/>
     </row>
@@ -7526,34 +7535,34 @@
       <c r="A31" s="174"/>
       <c r="B31" s="180"/>
       <c r="C31" s="40" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
       <c r="G31" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H31" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I31" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J31" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K31" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L31" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M31" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N31" s="179" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O31" s="175"/>
     </row>
@@ -7561,34 +7570,34 @@
       <c r="A32" s="174"/>
       <c r="B32" s="180"/>
       <c r="C32" s="40" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H32" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I32" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J32" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K32" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L32" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M32" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N32" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O32" s="175"/>
     </row>
@@ -7596,34 +7605,34 @@
       <c r="A33" s="174"/>
       <c r="B33" s="180"/>
       <c r="C33" s="40" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="176" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H33" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I33" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J33" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K33" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L33" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M33" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N33" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O33" s="175"/>
     </row>
@@ -7631,34 +7640,34 @@
       <c r="A34" s="174"/>
       <c r="B34" s="180"/>
       <c r="C34" s="40" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
       <c r="G34" s="176" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H34" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I34" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J34" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K34" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L34" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M34" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N34" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O34" s="175"/>
     </row>
@@ -7666,34 +7675,34 @@
       <c r="A35" s="174"/>
       <c r="B35" s="180"/>
       <c r="C35" s="40" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
       <c r="G35" s="176" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H35" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I35" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J35" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K35" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L35" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M35" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N35" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O35" s="175"/>
     </row>
@@ -7701,34 +7710,34 @@
       <c r="A36" s="174"/>
       <c r="B36" s="180"/>
       <c r="C36" s="40" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
       <c r="G36" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H36" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I36" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J36" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K36" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L36" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M36" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N36" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O36" s="175"/>
     </row>
@@ -7736,34 +7745,34 @@
       <c r="A37" s="174"/>
       <c r="B37" s="180"/>
       <c r="C37" s="40" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
       <c r="G37" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H37" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I37" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J37" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K37" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L37" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M37" s="176" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N37" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O37" s="175"/>
     </row>
@@ -7771,34 +7780,34 @@
       <c r="A38" s="174"/>
       <c r="B38" s="180"/>
       <c r="C38" s="40" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
       <c r="G38" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H38" s="176" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I38" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J38" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K38" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L38" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M38" s="176" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N38" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O38" s="175"/>
     </row>
@@ -7806,34 +7815,34 @@
       <c r="A39" s="174"/>
       <c r="B39" s="180"/>
       <c r="C39" s="40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
       <c r="G39" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H39" s="176" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I39" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J39" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K39" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L39" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M39" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N39" s="176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O39" s="175"/>
     </row>
@@ -15632,7 +15641,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16002,13 +16011,25 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="82"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="81"/>
+      <c r="A20" s="82" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>158</v>
+      </c>
       <c r="D20" s="81"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="E20" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>159</v>
+      </c>
       <c r="H20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16176,7 +16197,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
@@ -16192,7 +16213,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
@@ -16270,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C42" s="71" t="s">
         <v>146</v>
@@ -16278,7 +16299,7 @@
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="122" t="s">
@@ -16290,7 +16311,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C43" s="76" t="s">
         <v>149</v>
@@ -16298,7 +16319,7 @@
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="123" t="s">
@@ -16382,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>76</v>
@@ -16390,11 +16411,11 @@
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="71" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16402,7 +16423,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C51" s="76" t="s">
         <v>76</v>
@@ -16414,7 +16435,7 @@
       </c>
       <c r="G51" s="76"/>
       <c r="H51" s="76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17626,7 +17647,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -17695,7 +17716,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>128</v>
@@ -17715,10 +17736,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
@@ -17733,10 +17754,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
@@ -17979,7 +18000,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
@@ -17995,11 +18016,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -18081,7 +18102,7 @@
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="71" t="s">
@@ -18093,15 +18114,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="76" t="s">
@@ -19404,7 +19425,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -19473,7 +19494,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C12" s="126" t="s">
         <v>128</v>
@@ -19491,14 +19512,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D13" s="126"/>
       <c r="E13" s="107" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>82</v>
@@ -19739,7 +19760,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="76" t="s">
@@ -19835,7 +19856,7 @@
       <c r="D41" s="133"/>
       <c r="E41" s="133"/>
       <c r="F41" s="134" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G41" s="134"/>
       <c r="H41" s="132" t="s">
@@ -19929,7 +19950,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="136" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C49" s="136" t="s">
         <v>76</v>
@@ -19937,11 +19958,11 @@
       <c r="D49" s="136"/>
       <c r="E49" s="136"/>
       <c r="F49" s="137" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G49" s="137"/>
       <c r="H49" s="136" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21161,7 +21182,7 @@
       </c>
       <c r="B8" s="139"/>
       <c r="C8" s="63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -21230,10 +21251,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -21250,10 +21271,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76" t="s">
@@ -21270,10 +21291,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
@@ -21290,10 +21311,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="76" t="s">
@@ -21310,10 +21331,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D16" s="127"/>
       <c r="E16" s="77" t="s">
@@ -21536,11 +21557,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
@@ -21552,11 +21573,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76"/>
@@ -21630,10 +21651,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="147" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C42" s="147" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D42" s="147"/>
       <c r="E42" s="147"/>
@@ -21650,15 +21671,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="76" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G43" s="76"/>
       <c r="H43" s="149" t="s">
@@ -22946,7 +22967,7 @@
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="63" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
@@ -22960,7 +22981,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -23029,10 +23050,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -23471,7 +23492,7 @@
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="115"/>
       <c r="B50" s="70" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C50" s="70" t="s">
         <v>76</v>
@@ -23479,7 +23500,7 @@
       <c r="D50" s="70"/>
       <c r="E50" s="70"/>
       <c r="F50" s="70" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G50" s="70"/>
       <c r="H50" s="122" t="s">
@@ -24551,7 +24572,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24698,7 +24719,7 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -24767,10 +24788,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
@@ -25213,7 +25234,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C50" s="156" t="s">
         <v>76</v>
@@ -25221,7 +25242,7 @@
       <c r="D50" s="151"/>
       <c r="E50" s="152"/>
       <c r="F50" s="71" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="122" t="s">
